--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -670,7 +670,7 @@
         <v>1.39</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>5.4</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -970,7 +970,7 @@
         <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
         <v>2.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
         <v>180</v>
@@ -1144,10 +1144,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
         <v>12</v>
@@ -1165,10 +1165,10 @@
         <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
@@ -1222,7 +1222,7 @@
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
@@ -1243,16 +1243,16 @@
         <v>1.81</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>12.5</v>
@@ -1270,13 +1270,13 @@
         <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="n">
         <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>11.5</v>
@@ -1285,10 +1285,10 @@
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
@@ -1297,22 +1297,22 @@
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
         <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G7" t="n">
         <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,28 +1366,28 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
         <v>1.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
         <v>10.5</v>
@@ -1408,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
         <v>9.199999999999999</v>
@@ -1420,16 +1420,16 @@
         <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>190</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8">
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.2</v>
@@ -1507,7 +1507,7 @@
         <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.28</v>
@@ -1534,13 +1534,13 @@
         <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
         <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>8.4</v>
@@ -1549,10 +1549,10 @@
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>12.5</v>
@@ -1561,10 +1561,10 @@
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>30</v>
@@ -1582,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.7</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G10" t="n">
         <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
         <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G13" t="n">
         <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
         <v>10.5</v>
@@ -2437,7 +2437,7 @@
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -2698,13 +2698,13 @@
         <v>7.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I17" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
         <v>5.5</v>
@@ -2860,7 +2860,7 @@
         <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
         <v>1.93</v>
@@ -3235,19 +3235,19 @@
         <v>1.49</v>
       </c>
       <c r="G21" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G22" t="n">
         <v>2.44</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G23" t="n">
         <v>2.04</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>9.4</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q25" t="n">
         <v>1.62</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
@@ -3835,10 +3835,10 @@
         <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -3868,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>140</v>
@@ -3931,25 +3931,25 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
         <v>1.8</v>
@@ -3973,7 +3973,7 @@
         <v>500</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
         <v>10.5</v>
@@ -3985,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
@@ -3994,10 +3994,10 @@
         <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK26" t="n">
         <v>16.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +805,7 @@
         <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
         <v>1.3</v>
@@ -814,7 +814,7 @@
         <v>1.47</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
         <v>2.36</v>
@@ -946,13 +946,13 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1102,22 +1102,22 @@
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
         <v>55</v>
@@ -1159,7 +1159,7 @@
         <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
@@ -1177,7 +1177,7 @@
         <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.26</v>
@@ -1219,7 +1219,7 @@
         <v>2.28</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
@@ -1351,7 +1351,7 @@
         <v>1.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
@@ -1375,7 +1375,7 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
@@ -1384,10 +1384,10 @@
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
         <v>2.22</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>17</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
         <v>27</v>
@@ -1618,7 +1618,7 @@
         <v>2.82</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="I9" t="n">
         <v>3.05</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G10" t="n">
         <v>1.64</v>
@@ -1762,7 +1762,7 @@
         <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>2.76</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.15</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
@@ -2434,7 +2434,7 @@
         <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>5.4</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>2.38</v>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.88</v>
       </c>
       <c r="I16" t="n">
         <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q16" t="n">
         <v>1.79</v>
@@ -2995,7 +2995,7 @@
         <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
@@ -3130,7 +3130,7 @@
         <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>2.04</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
         <v>5.1</v>
@@ -3517,7 +3517,7 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>1.96</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>4.9</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3763,61 +3763,61 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="I25" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,55 +3826,55 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Z25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE25" t="n">
         <v>1000</v>
       </c>
-      <c r="AA25" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>170</v>
-      </c>
       <c r="AF25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>140</v>
-      </c>
       <c r="AN25" t="n">
-        <v>5.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3898,62 +3898,62 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U26" t="n">
         <v>2</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -3961,57 +3961,192 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO26" t="n">
         <v>1000</v>
       </c>
-      <c r="AN26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO26" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.66</v>
@@ -970,7 +970,7 @@
         <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1096,28 +1096,28 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>25</v>
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1174,7 +1174,7 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
         <v>65</v>
@@ -1216,7 +1216,7 @@
         <v>2.26</v>
       </c>
       <c r="I6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1264,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>16</v>
@@ -1300,7 +1300,7 @@
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
         <v>44</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G7" t="n">
         <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I7" t="n">
         <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
@@ -1384,7 +1384,7 @@
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1417,7 +1417,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>44</v>
@@ -1444,7 +1444,7 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>9.6</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
         <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1519,7 +1519,7 @@
         <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
@@ -1546,13 +1546,13 @@
         <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
         <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>12.5</v>
@@ -1567,16 +1567,16 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
         <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1624,7 +1624,7 @@
         <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.7</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G10" t="n">
         <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
@@ -1780,7 +1780,7 @@
         <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
         <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -2029,10 +2029,10 @@
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
         <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I13" t="n">
         <v>8</v>
@@ -2185,7 +2185,7 @@
         <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.15</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>1.54</v>
       </c>
       <c r="I17" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
         <v>5.5</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.01</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="n">
         <v>1.72</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
         <v>6.4</v>
@@ -2842,7 +2842,7 @@
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>1.49</v>
       </c>
       <c r="G21" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>6.2</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
         <v>1.01</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G24" t="n">
         <v>2.52</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
         <v>4.9</v>
@@ -3778,7 +3778,7 @@
         <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I25" t="n">
         <v>8</v>
@@ -3817,7 +3817,7 @@
         <v>2.18</v>
       </c>
       <c r="U25" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
         <v>12.5</v>
@@ -3877,7 +3877,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H26" t="n">
         <v>9.4</v>
@@ -3919,7 +3919,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K26" t="n">
         <v>5.8</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
         <v>1.62</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
         <v>36</v>
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>140</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
         <v>2.64</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
         <v>4.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>5.9</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -700,7 +700,7 @@
         <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>1.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.47</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -946,10 +946,10 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
@@ -1075,7 +1075,7 @@
         <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1129,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="n">
         <v>55</v>
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>25</v>
@@ -1216,7 +1216,7 @@
         <v>2.26</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="I7" t="n">
         <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="8">
@@ -1540,7 +1540,7 @@
         <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
         <v>8.4</v>
@@ -1552,7 +1552,7 @@
         <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>12.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
         <v>1.64</v>
@@ -1897,7 +1897,7 @@
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
         <v>27</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>1.93</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>1.66</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
         <v>5.5</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>1.49</v>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H21" t="n">
         <v>6.2</v>
@@ -3244,7 +3244,7 @@
         <v>8.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
         <v>5.5</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>980</v>
@@ -3805,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
         <v>1.37</v>
@@ -3817,7 +3817,7 @@
         <v>2.18</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y25" t="n">
         <v>22</v>
       </c>
       <c r="Z25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="n">
         <v>500</v>
@@ -3844,10 +3844,10 @@
         <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF25" t="n">
         <v>8.199999999999999</v>
@@ -3859,7 +3859,7 @@
         <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="n">
         <v>12.5</v>
@@ -3913,10 +3913,10 @@
         <v>1.39</v>
       </c>
       <c r="H26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
         <v>5.7</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q26" t="n">
         <v>1.62</v>
@@ -3970,7 +3970,7 @@
         <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AB26" t="n">
         <v>10</v>
@@ -3988,7 +3988,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -928,31 +928,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>2.36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.39</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1198,55 +1198,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>1.62</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>2.26</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.28</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
         <v>1.68</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>16</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>6.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>2.26</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1399,55 +1399,55 @@
         <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>17</v>
       </c>
-      <c r="AB7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL7" t="n">
         <v>44</v>
       </c>
-      <c r="AG7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1468,61 +1468,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>5.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1.71</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="AE8" t="n">
-        <v>55</v>
-      </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.82</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.6</v>
+        <v>2.58</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2</v>
+        <v>2.76</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.94</v>
+        <v>2.88</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>2.86</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="G14" t="n">
         <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>6.6</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>6.6</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.84</v>
+        <v>1.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.96</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.64</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.3</v>
+        <v>2.84</v>
       </c>
       <c r="G17" t="n">
-        <v>7.4</v>
+        <v>2.96</v>
       </c>
       <c r="H17" t="n">
-        <v>1.54</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.66</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="G18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.66</v>
       </c>
-      <c r="H18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.48</v>
+        <v>1.21</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>2.84</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>2.84</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.49</v>
+        <v>2.48</v>
       </c>
       <c r="G21" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>6.2</v>
+        <v>2.84</v>
       </c>
       <c r="I21" t="n">
-        <v>8.6</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>2.84</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.22</v>
+        <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.86</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.99</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3628,31 +3628,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.04</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,66 +3758,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>2.76</v>
       </c>
       <c r="H25" t="n">
-        <v>7.6</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,58 +3826,58 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="H26" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG26" t="n">
         <v>10</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AH26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="n">
         <v>170</v>
       </c>
-      <c r="AF26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>140</v>
-      </c>
       <c r="AN26" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,120 +4033,255 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>1.38</v>
       </c>
       <c r="G27" t="n">
-        <v>2.64</v>
+        <v>1.39</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="K27" t="n">
         <v>5.9</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.01</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M28" t="n">
         <v>1.01</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N28" t="n">
         <v>1.67</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O28" t="n">
         <v>1.01</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P28" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q28" t="n">
         <v>1.91</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R28" t="n">
         <v>1.24</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S28" t="n">
         <v>3.25</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T28" t="n">
         <v>1.01</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U28" t="n">
         <v>1.01</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V28" t="n">
         <v>1.28</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W28" t="n">
         <v>1.61</v>
       </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,19 +691,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
         <v>1.05</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>10.5</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +940,10 @@
         <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="n">
         <v>980</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
         <v>6.4</v>
@@ -1249,7 +1249,7 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
         <v>2.38</v>
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
@@ -1285,7 +1285,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1300,10 +1300,10 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>75</v>
@@ -1348,13 +1348,13 @@
         <v>3.4</v>
       </c>
       <c r="H7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.26</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.28</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>3.85</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
         <v>60</v>
@@ -1441,7 +1441,7 @@
         <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
@@ -1543,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9.199999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>44</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
@@ -1639,13 +1639,13 @@
         <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
@@ -1717,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G17" t="n">
         <v>2.96</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q17" t="n">
         <v>1.84</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.3</v>
+        <v>1.21</v>
       </c>
       <c r="G18" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>1.66</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G19" t="n">
         <v>1.66</v>
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.21</v>
+        <v>5.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G21" t="n">
         <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
         <v>2.84</v>
@@ -3370,7 +3370,7 @@
         <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H22" t="n">
         <v>6.2</v>
@@ -3379,7 +3379,7 @@
         <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
         <v>5.5</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
         <v>2.44</v>
       </c>
       <c r="H23" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I23" t="n">
         <v>3.25</v>
@@ -3898,62 +3898,62 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="I26" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U26" t="n">
         <v>2</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -3961,58 +3961,58 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA26" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG26" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
         <v>140</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>170</v>
-      </c>
       <c r="AN26" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,61 +4033,61 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="G27" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="H27" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,193 +4096,58 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="AB27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC27" t="n">
         <v>10</v>
       </c>
-      <c r="AC27" t="n">
-        <v>13</v>
-      </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM27" t="n">
         <v>170</v>
       </c>
-      <c r="AF27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>140</v>
-      </c>
       <c r="AN27" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,10 +823,10 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="O3" t="n">
         <v>1.26</v>
@@ -838,10 +838,10 @@
         <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.89</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.2</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>2.44</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1.11</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>1.42</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.9</v>
+        <v>2.44</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>2.24</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>2.26</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
         <v>18.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL7" t="n">
         <v>60</v>
       </c>
-      <c r="AK7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>44</v>
-      </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>5.7</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>1.72</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.06</v>
       </c>
-      <c r="N8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.22</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
@@ -1645,7 +1645,7 @@
         <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
@@ -1654,10 +1654,10 @@
         <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>28</v>
       </c>
       <c r="AA9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
         <v>8.4</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
@@ -1717,13 +1717,13 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.58</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>1.71</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H11" t="n">
         <v>6.2</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>1.05</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>2.86</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.44</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>6.6</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>6.4</v>
       </c>
       <c r="I15" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>950</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>2.42</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.46</v>
+        <v>2.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>6.6</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5</v>
+        <v>2.86</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.96</v>
+        <v>1.93</v>
       </c>
       <c r="H17" t="n">
-        <v>2.42</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="G19" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
-        <v>5.7</v>
+        <v>2.92</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="G20" t="n">
-        <v>7.4</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
-        <v>1.54</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
-        <v>1.66</v>
+        <v>2.58</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>2.52</v>
       </c>
       <c r="G21" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
         <v>2.86</v>
@@ -3244,7 +3244,7 @@
         <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>3.65</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.73</v>
+        <v>1.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="G22" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="H22" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I22" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>5.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.44</v>
+        <v>7.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.84</v>
+        <v>1.54</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>1.77</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3628,31 +3628,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" t="n">
         <v>5.1</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="G25" t="n">
-        <v>2.76</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,42 +3893,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.38</v>
+        <v>2.26</v>
       </c>
       <c r="G26" t="n">
-        <v>1.39</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
-        <v>9.6</v>
+        <v>2.84</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,193 +3961,733 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Braintree</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Boston Utd</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Brackley Town</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>English Premier League</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>2025-12-30</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Aston Villa</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="F31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>1.07</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N31" t="n">
         <v>3.95</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O31" t="n">
         <v>1.32</v>
       </c>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="P31" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S31" t="n">
         <v>3.5</v>
       </c>
-      <c r="T27" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y27" t="n">
+      <c r="T31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y31" t="n">
         <v>22</v>
       </c>
-      <c r="Z27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC27" t="n">
+      <c r="Z31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG31" t="n">
         <v>10</v>
       </c>
-      <c r="AD27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL27" t="n">
+      <c r="AH31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL31" t="n">
         <v>44</v>
       </c>
-      <c r="AM27" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>260</v>
+      <c r="AM31" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +973,7 @@
         <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
@@ -1090,13 +1090,13 @@
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
@@ -1213,13 +1213,13 @@
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1231,31 +1231,31 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="W6" t="n">
         <v>1.07</v>
@@ -1345,7 +1345,7 @@
         <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
         <v>3.55</v>
@@ -1354,10 +1354,10 @@
         <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,52 +1366,52 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>990</v>
@@ -1420,10 +1420,10 @@
         <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>990</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
@@ -1519,16 +1519,16 @@
         <v>1.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
         <v>980</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
@@ -1567,10 +1567,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.95</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1630,25 +1630,25 @@
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
         <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
         <v>4.3</v>
@@ -1660,37 +1660,37 @@
         <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
         <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1699,25 +1699,25 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>5.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1765,7 +1765,7 @@
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1774,13 +1774,13 @@
         <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
@@ -1789,40 +1789,40 @@
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
         <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB10" t="n">
         <v>19.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
         <v>44</v>
@@ -1834,22 +1834,22 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
         <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO10" t="n">
         <v>9.4</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.61</v>
       </c>
       <c r="H11" t="n">
         <v>6.2</v>
@@ -1894,13 +1894,13 @@
         <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1912,40 +1912,40 @@
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
         <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
@@ -1954,40 +1954,40 @@
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
         <v>2.3</v>
@@ -2035,7 +2035,7 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2050,13 +2050,13 @@
         <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
@@ -2065,61 +2065,61 @@
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
         <v>16</v>
       </c>
-      <c r="AA12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
         <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.58</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J14" t="n">
         <v>2.76</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,103 +2413,103 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.64</v>
+        <v>2.82</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>1.05</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
         <v>980</v>
       </c>
-      <c r="Z15" t="n">
-        <v>85</v>
-      </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
         <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2518,7 +2518,7 @@
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.88</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.86</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="G17" t="n">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>2.86</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>950</v>
+        <v>5.9</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.88</v>
+        <v>1.47</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>2.42</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.58</v>
+        <v>10.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.22</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.52</v>
+        <v>1.21</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>2.86</v>
+        <v>8.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>5.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>17.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>1.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.58</v>
+        <v>2.82</v>
       </c>
       <c r="G22" t="n">
-        <v>1.66</v>
+        <v>2.96</v>
       </c>
       <c r="H22" t="n">
-        <v>5.7</v>
+        <v>2.42</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.3</v>
+        <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>7.4</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>1.54</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1.77</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.21</v>
+        <v>5.3</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="H24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.04</v>
       </c>
-      <c r="I24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>950</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.48</v>
+        <v>2.52</v>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>6.2</v>
+        <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>8.6</v>
+        <v>3.55</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.26</v>
+        <v>1.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.84</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.99</v>
+        <v>1.57</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -4168,43 +4168,43 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
         <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
         <v>1.81</v>
@@ -4213,82 +4213,82 @@
         <v>1.99</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,117 +4298,117 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1.91</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>1.98</v>
+        <v>3.95</v>
       </c>
       <c r="J29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.85</v>
       </c>
-      <c r="K29" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.03</v>
+        <v>2.66</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.24</v>
+        <v>1.99</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>2.48</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U29" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,123 +4433,123 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.38</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>1.39</v>
+        <v>5.2</v>
       </c>
       <c r="H30" t="n">
-        <v>9.4</v>
+        <v>1.89</v>
       </c>
       <c r="I30" t="n">
-        <v>9.800000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="J30" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="Q30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.62</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.94</v>
-      </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I31" t="n">
         <v>8.6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
@@ -4600,28 +4600,28 @@
         <v>5.1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
         <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
         <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T31" t="n">
         <v>2.2</v>
@@ -4630,34 +4630,34 @@
         <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X31" t="n">
         <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="n">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE31" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="n">
         <v>7.8</v>
@@ -4666,27 +4666,297 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
         <v>7.8</v>
       </c>
       <c r="AO31" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -706,7 +706,7 @@
         <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -811,13 +811,13 @@
         <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
         <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -970,10 +970,10 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
@@ -1213,10 +1213,10 @@
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J6" t="n">
         <v>5.5</v>
@@ -1249,7 +1249,7 @@
         <v>1.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
@@ -1258,7 +1258,7 @@
         <v>3.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1351,10 +1351,10 @@
         <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
@@ -1369,7 +1369,7 @@
         <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
         <v>1.68</v>
@@ -1381,7 +1381,7 @@
         <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
         <v>1.75</v>
@@ -1390,7 +1390,7 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.76</v>
@@ -1489,7 +1489,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1528,7 +1528,7 @@
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1561,7 +1561,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1639,7 +1639,7 @@
         <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
         <v>1.74</v>
@@ -1651,7 +1651,7 @@
         <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
         <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1780,28 +1780,28 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1813,7 +1813,7 @@
         <v>16.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
         <v>9.199999999999999</v>
@@ -1849,10 +1849,10 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H11" t="n">
         <v>6.2</v>
@@ -1924,7 +1924,7 @@
         <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
         <v>2.38</v>
@@ -1933,7 +1933,7 @@
         <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
@@ -1954,7 +1954,7 @@
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>70</v>
@@ -2020,13 +2020,13 @@
         <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2035,7 +2035,7 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2047,7 +2047,7 @@
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.8</v>
@@ -2065,7 +2065,7 @@
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="W12" t="n">
         <v>1.41</v>
@@ -2083,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.199999999999999</v>
@@ -2095,7 +2095,7 @@
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="13">
@@ -2176,16 +2176,16 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
         <v>1.6</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2317,7 +2317,7 @@
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
         <v>1.92</v>
@@ -2326,7 +2326,7 @@
         <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
         <v>1.04</v>
@@ -2335,10 +2335,10 @@
         <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2428,7 +2428,7 @@
         <v>2.82</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2452,7 +2452,7 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="Q15" t="n">
         <v>1.65</v>
@@ -2488,7 +2488,7 @@
         <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2575,22 +2575,22 @@
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
         <v>1.32</v>
@@ -2602,7 +2602,7 @@
         <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="V16" t="n">
         <v>1.16</v>
@@ -2614,7 +2614,7 @@
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z16" t="n">
         <v>85</v>
@@ -2641,7 +2641,7 @@
         <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2734,7 +2734,7 @@
         <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
         <v>1.84</v>
@@ -2746,7 +2746,7 @@
         <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2794,10 +2794,10 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G19" t="n">
         <v>1.53</v>
@@ -2986,7 +2986,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
@@ -3004,16 +3004,16 @@
         <v>2.06</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V19" t="n">
         <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3121,22 +3121,22 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="T20" t="n">
         <v>1.56</v>
@@ -3154,7 +3154,7 @@
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
         <v>95</v>
@@ -3169,7 +3169,7 @@
         <v>17.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3178,10 +3178,10 @@
         <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,19 +3235,19 @@
         <v>1.21</v>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="H21" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I21" t="n">
         <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3274,16 +3274,16 @@
         <v>2.14</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3379,7 +3379,7 @@
         <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3409,7 +3409,7 @@
         <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="n">
         <v>1.98</v>
@@ -3421,10 +3421,10 @@
         <v>1.51</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z22" t="n">
         <v>980</v>
@@ -3433,13 +3433,13 @@
         <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC22" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE22" t="n">
         <v>980</v>
@@ -3448,10 +3448,10 @@
         <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI22" t="n">
         <v>980</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3646,7 +3646,7 @@
         <v>1.54</v>
       </c>
       <c r="I24" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G25" t="n">
         <v>3.05</v>
@@ -3796,16 +3796,16 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="O25" t="n">
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
         <v>1.25</v>
@@ -3844,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE25" t="n">
         <v>55</v>
@@ -3856,7 +3856,7 @@
         <v>18</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI25" t="n">
         <v>75</v>
@@ -3958,7 +3958,7 @@
         <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X26" t="n">
         <v>36</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4048,7 +4048,7 @@
         <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I27" t="n">
         <v>3.25</v>
@@ -4108,7 +4108,7 @@
         <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -4201,7 +4201,7 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>1.81</v>
+        <v>2.62</v>
       </c>
       <c r="O28" t="n">
         <v>1.34</v>
@@ -4213,10 +4213,10 @@
         <v>1.99</v>
       </c>
       <c r="R28" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>1.99</v>
+        <v>2.52</v>
       </c>
       <c r="T28" t="n">
         <v>1.58</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4354,7 +4354,7 @@
         <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U29" t="n">
         <v>1.83</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J30" t="n">
         <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>980</v>
       </c>
       <c r="L30" t="n">
         <v>1.33</v>
@@ -4471,34 +4471,34 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="O30" t="n">
         <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V30" t="n">
         <v>2.02</v>
       </c>
       <c r="W30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G31" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H31" t="n">
         <v>8.4</v>
@@ -4594,16 +4594,16 @@
         <v>8.6</v>
       </c>
       <c r="J31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K31" t="n">
         <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.38</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
         <v>4</v>
@@ -4618,7 +4618,7 @@
         <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S31" t="n">
         <v>3.45</v>
@@ -4636,16 +4636,16 @@
         <v>3.1</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z31" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA31" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB31" t="n">
         <v>7.8</v>
@@ -4666,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
         <v>140</v>
@@ -4684,10 +4684,10 @@
         <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
@@ -4750,7 +4750,7 @@
         <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
         <v>1.6</v>
@@ -4759,7 +4759,7 @@
         <v>2.58</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -4780,7 +4780,7 @@
         <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AB32" t="n">
         <v>9.800000000000001</v>
@@ -4855,10 +4855,10 @@
         <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
         <v>4.6</v>
@@ -4870,22 +4870,22 @@
         <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P33" t="n">
         <v>1.69</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R33" t="n">
         <v>1.26</v>
@@ -4894,16 +4894,16 @@
         <v>3.35</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -847,7 +847,7 @@
         <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
@@ -949,7 +949,7 @@
         <v>2.44</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -970,10 +970,10 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
         <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
@@ -1087,10 +1087,10 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1114,7 +1114,7 @@
         <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1243,10 +1243,10 @@
         <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="S6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>1.61</v>
@@ -1378,13 +1378,13 @@
         <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
         <v>2.18</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>1.04</v>
@@ -1642,10 +1642,10 @@
         <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R9" t="n">
         <v>1.27</v>
@@ -1654,7 +1654,7 @@
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1678,7 +1678,7 @@
         <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
@@ -1708,13 +1708,13 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
@@ -1765,7 +1765,7 @@
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1912,19 +1912,19 @@
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
         <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
         <v>2.38</v>
@@ -1945,13 +1945,13 @@
         <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
         <v>3.45</v>
@@ -2026,7 +2026,7 @@
         <v>2.24</v>
       </c>
       <c r="I12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2053,19 +2053,19 @@
         <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W12" t="n">
         <v>1.41</v>
@@ -2287,91 +2287,91 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="H14" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +2437,7 @@
         <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
@@ -2965,10 +2965,10 @@
         <v>1.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I19" t="n">
         <v>8</v>
@@ -3379,7 +3379,7 @@
         <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R22" t="n">
         <v>1.36</v>
@@ -3508,7 +3508,7 @@
         <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
@@ -3667,7 +3667,7 @@
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q24" t="n">
         <v>1.15</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
         <v>3.05</v>
@@ -3808,7 +3808,7 @@
         <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="S25" t="n">
         <v>3.3</v>
@@ -3910,7 +3910,7 @@
         <v>1.48</v>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="H26" t="n">
         <v>6.2</v>
@@ -3919,7 +3919,7 @@
         <v>8.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>5.5</v>
@@ -3958,7 +3958,7 @@
         <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="X26" t="n">
         <v>36</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -4462,7 +4462,7 @@
         <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.33</v>
@@ -4537,7 +4537,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.47</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.48</v>
       </c>
       <c r="H31" t="n">
         <v>8.4</v>
       </c>
       <c r="I31" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J31" t="n">
         <v>4.9</v>
@@ -4606,7 +4606,7 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O31" t="n">
         <v>1.31</v>
@@ -4618,19 +4618,19 @@
         <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
         <v>2.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V31" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
         <v>3.1</v>
@@ -4642,13 +4642,13 @@
         <v>24</v>
       </c>
       <c r="Z31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC31" t="n">
         <v>11</v>
@@ -4675,19 +4675,19 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN31" t="n">
         <v>7.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32">
@@ -4780,7 +4780,7 @@
         <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB32" t="n">
         <v>9.800000000000001</v>
@@ -4819,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO32" t="n">
         <v>140</v>
@@ -4885,7 +4885,7 @@
         <v>1.69</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
         <v>1.26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -844,7 +844,7 @@
         <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -946,7 +946,7 @@
         <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
@@ -970,22 +970,22 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W4" t="n">
         <v>1.37</v>
@@ -1027,13 +1027,13 @@
         <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
         <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1249,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="W6" t="n">
         <v>1.05</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
         <v>2.32</v>
@@ -1351,7 +1351,7 @@
         <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1378,19 +1378,19 @@
         <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
         <v>2.18</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
         <v>1.76</v>
@@ -1483,16 +1483,16 @@
         <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
         <v>5.9</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,7 +1507,7 @@
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="Q8" t="n">
         <v>1.37</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1642,7 +1642,7 @@
         <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
         <v>2.32</v>
@@ -1654,7 +1654,7 @@
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1669,7 +1669,7 @@
         <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>25</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G10" t="n">
         <v>5.9</v>
@@ -1765,7 +1765,7 @@
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1780,7 +1780,7 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
@@ -1807,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA10" t="n">
         <v>16.5</v>
@@ -1816,7 +1816,7 @@
         <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
         <v>9.6</v>
@@ -1900,7 +1900,7 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1927,7 +1927,7 @@
         <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
@@ -2047,7 +2047,7 @@
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
         <v>1.8</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G14" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
         <v>2.86</v>
@@ -2323,64 +2323,64 @@
         <v>2.04</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
         <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
         <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
         <v>1.55</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
         <v>15</v>
       </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18</v>
-      </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2452,7 +2452,7 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
         <v>1.65</v>
@@ -2599,10 +2599,10 @@
         <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="V16" t="n">
         <v>1.16</v>
@@ -2965,13 +2965,13 @@
         <v>1.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J19" t="n">
         <v>4.9</v>
@@ -2995,13 +2995,13 @@
         <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S19" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>1.04</v>
@@ -3010,7 +3010,7 @@
         <v>1.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
         <v>2.88</v>
@@ -3019,7 +3019,7 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z19" t="n">
         <v>95</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
         <v>5.7</v>
@@ -3130,10 +3130,10 @@
         <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
         <v>2.12</v>
@@ -3145,10 +3145,10 @@
         <v>1.69</v>
       </c>
       <c r="V20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3157,7 +3157,7 @@
         <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3166,7 +3166,7 @@
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>990</v>
@@ -3178,7 +3178,7 @@
         <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
         <v>990</v>
@@ -3376,10 +3376,10 @@
         <v>2.42</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3397,10 +3397,10 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
         <v>1.36</v>
@@ -3415,7 +3415,7 @@
         <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
         <v>1.51</v>
@@ -3571,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>30</v>
@@ -3580,19 +3580,19 @@
         <v>100</v>
       </c>
       <c r="AF23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>15</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
         <v>22</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="I24" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -3661,7 +3661,7 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
@@ -3670,7 +3670,7 @@
         <v>2.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="R24" t="n">
         <v>1.68</v>
@@ -3775,13 +3775,13 @@
         <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H25" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I25" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -3796,19 +3796,19 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.34</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
         <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="S25" t="n">
         <v>3.3</v>
@@ -3823,7 +3823,7 @@
         <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X25" t="n">
         <v>18</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="G26" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,13 +3931,13 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O26" t="n">
         <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
         <v>1.18</v>
@@ -3949,67 +3949,67 @@
         <v>2.22</v>
       </c>
       <c r="T26" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="X26" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="Z26" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AD26" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AI26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,31 +4042,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G27" t="n">
         <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.19</v>
@@ -4084,13 +4084,13 @@
         <v>2.42</v>
       </c>
       <c r="T27" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U27" t="n">
         <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
         <v>1.69</v>
@@ -4102,22 +4102,22 @@
         <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
         <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
         <v>19.5</v>
@@ -4129,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="n">
         <v>980</v>
@@ -4147,7 +4147,7 @@
         <v>13.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -4207,22 +4207,22 @@
         <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
         <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
         <v>1.27</v>
@@ -4231,13 +4231,13 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4246,31 +4246,31 @@
         <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH28" t="n">
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK28" t="n">
         <v>32</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>30</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4477,13 +4477,13 @@
         <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q30" t="n">
         <v>1.45</v>
       </c>
       <c r="R30" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
         <v>2.3</v>
@@ -4591,7 +4591,7 @@
         <v>8.4</v>
       </c>
       <c r="I31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J31" t="n">
         <v>4.9</v>
@@ -4615,7 +4615,7 @@
         <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R31" t="n">
         <v>1.38</v>
@@ -4630,7 +4630,7 @@
         <v>1.79</v>
       </c>
       <c r="V31" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W31" t="n">
         <v>3.1</v>
@@ -4645,7 +4645,7 @@
         <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="AB31" t="n">
         <v>7.6</v>
@@ -4663,7 +4663,7 @@
         <v>7.8</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>28</v>
@@ -4744,7 +4744,7 @@
         <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
         <v>2.52</v>
@@ -4753,7 +4753,7 @@
         <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S32" t="n">
         <v>2.58</v>
@@ -4807,7 +4807,7 @@
         <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
         <v>13.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -832,10 +832,10 @@
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
@@ -943,13 +943,13 @@
         <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -970,10 +970,10 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
@@ -985,7 +985,7 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
         <v>1.37</v>
@@ -1018,22 +1018,22 @@
         <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1090,16 +1090,16 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>1.89</v>
@@ -1108,28 +1108,28 @@
         <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
         <v>1.78</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1138,28 +1138,28 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
         <v>980</v>
@@ -1168,13 +1168,13 @@
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>8.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="I6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,37 +1255,37 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
         <v>990</v>
@@ -1297,22 +1297,22 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
         <v>2.32</v>
@@ -1357,7 +1357,7 @@
         <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
@@ -1375,13 +1375,13 @@
         <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1429,7 +1429,7 @@
         <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1480,13 +1480,13 @@
         <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H8" t="n">
         <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
         <v>5.9</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
         <v>1.34</v>
@@ -1753,10 +1753,10 @@
         <v>5.9</v>
       </c>
       <c r="H10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.68</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.69</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1780,7 +1780,7 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
@@ -1795,7 +1795,7 @@
         <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -1825,16 +1825,16 @@
         <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="n">
         <v>21</v>
       </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>150</v>
@@ -1963,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -2026,7 +2026,7 @@
         <v>2.24</v>
       </c>
       <c r="I12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2038,7 +2038,7 @@
         <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>4.5</v>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
@@ -2155,7 +2155,7 @@
         <v>1.32</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>6.2</v>
@@ -2203,7 +2203,7 @@
         <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>2.86</v>
@@ -2326,10 +2326,10 @@
         <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.04</v>
@@ -2383,7 +2383,7 @@
         <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2455,7 +2455,7 @@
         <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
         <v>1.31</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
         <v>1.94</v>
@@ -2851,7 +2851,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2863,16 +2863,16 @@
         <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>1.29</v>
@@ -2992,16 +2992,16 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T19" t="n">
         <v>1.04</v>
@@ -3016,13 +3016,13 @@
         <v>2.88</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
         <v>50</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3049,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
         <v>20</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I20" t="n">
         <v>8</v>
@@ -3112,7 +3112,7 @@
         <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3142,7 +3142,7 @@
         <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
         <v>1.14</v>
@@ -3373,16 +3373,16 @@
         <v>2.96</v>
       </c>
       <c r="H22" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I22" t="n">
         <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3526,7 +3526,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -3544,10 +3544,10 @@
         <v>2.58</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.17</v>
@@ -3556,58 +3556,58 @@
         <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL23" t="n">
         <v>980</v>
       </c>
-      <c r="AK23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>44</v>
-      </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="G24" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I24" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -3661,13 +3661,13 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
         <v>1.39</v>
@@ -3685,7 +3685,7 @@
         <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W24" t="n">
         <v>1.15</v>
@@ -3781,10 +3781,10 @@
         <v>2.84</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
         <v>3.65</v>
@@ -3805,10 +3805,10 @@
         <v>1.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
         <v>3.3</v>
@@ -3820,7 +3820,7 @@
         <v>1.69</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
         <v>1.51</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="G26" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3949,22 +3949,22 @@
         <v>2.22</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V26" t="n">
         <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="X26" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3973,43 +3973,43 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AD26" t="n">
-        <v>990</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,52 +4042,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G27" t="n">
         <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>500</v>
       </c>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.1</v>
+        <v>2.16</v>
       </c>
       <c r="O27" t="n">
         <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="R27" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="T27" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
         <v>1.43</v>
@@ -4096,58 +4096,58 @@
         <v>1.69</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4201,22 +4201,22 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="R28" t="n">
         <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T28" t="n">
         <v>1.64</v>
@@ -4234,10 +4234,10 @@
         <v>17.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4246,40 +4246,40 @@
         <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4450,7 +4450,7 @@
         <v>3.3</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="n">
         <v>1.8</v>
@@ -4459,7 +4459,7 @@
         <v>1.98</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="n">
         <v>5.3</v>
@@ -4498,7 +4498,7 @@
         <v>2.02</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4627,7 +4627,7 @@
         <v>2.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
         <v>1.13</v>
@@ -4675,13 +4675,13 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL31" t="n">
         <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
         <v>7.6</v>
@@ -4780,7 +4780,7 @@
         <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB32" t="n">
         <v>9.800000000000001</v>
@@ -4867,7 +4867,7 @@
         <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -805,19 +805,19 @@
         <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
         <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>500</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,85 +826,85 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.18</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -952,7 +952,7 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -976,7 +976,7 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
         <v>1.55</v>
@@ -1021,7 +1021,7 @@
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
         <v>48</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,19 +1099,19 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.73</v>
@@ -1120,16 +1120,16 @@
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
         <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1141,10 +1141,10 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
         <v>980</v>
@@ -1153,7 +1153,7 @@
         <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
         <v>990</v>
@@ -1216,7 +1216,7 @@
         <v>1.33</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J6" t="n">
         <v>5.7</v>
@@ -1231,28 +1231,28 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>3.5</v>
@@ -1267,7 +1267,7 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1363,31 +1363,31 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
         <v>1.35</v>
@@ -1396,10 +1396,10 @@
         <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1408,19 +1408,19 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1438,16 +1438,16 @@
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>9.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,34 +1501,34 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.92</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q8" t="n">
         <v>1.37</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH8" t="n">
         <v>990</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1639,10 +1639,10 @@
         <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
         <v>2.32</v>
@@ -1750,7 +1750,7 @@
         <v>5.7</v>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H10" t="n">
         <v>1.67</v>
@@ -1765,7 +1765,7 @@
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1777,7 +1777,7 @@
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
         <v>1.85</v>
@@ -1792,7 +1792,7 @@
         <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
         <v>2.46</v>
@@ -1801,7 +1801,7 @@
         <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1831,10 +1831,10 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
         <v>150</v>
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -2026,7 +2026,7 @@
         <v>2.24</v>
       </c>
       <c r="I12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2035,7 +2035,7 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2068,7 +2068,7 @@
         <v>1.79</v>
       </c>
       <c r="W12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
@@ -2155,7 +2155,7 @@
         <v>1.32</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="H13" t="n">
         <v>6.2</v>
@@ -2191,7 +2191,7 @@
         <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>1.04</v>
@@ -2203,7 +2203,7 @@
         <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2317,7 +2317,7 @@
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>2.04</v>
@@ -2437,7 +2437,7 @@
         <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
@@ -2446,28 +2446,28 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2485,13 +2485,13 @@
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2500,16 +2500,16 @@
         <v>980</v>
       </c>
       <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
         <v>980</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>50</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2518,16 +2518,16 @@
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
         <v>1.64</v>
@@ -2569,40 +2569,40 @@
         <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
         <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
         <v>1.16</v>
@@ -2611,22 +2611,22 @@
         <v>2.56</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>990</v>
       </c>
       <c r="Z16" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2635,19 +2635,19 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>990</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>980</v>
@@ -2656,10 +2656,10 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
@@ -2701,43 +2701,43 @@
         <v>2.62</v>
       </c>
       <c r="I17" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
         <v>1.54</v>
@@ -2746,58 +2746,58 @@
         <v>1.46</v>
       </c>
       <c r="X17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
         <v>13</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15</v>
-      </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
         <v>4.4</v>
@@ -2842,7 +2842,7 @@
         <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2881,55 +2881,55 @@
         <v>2.06</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2980,34 +2980,34 @@
         <v>5.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="S19" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="T19" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
         <v>1.13</v>
@@ -3016,10 +3016,10 @@
         <v>2.88</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,43 +3028,43 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3100,13 +3100,13 @@
         <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
         <v>6.4</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3121,34 +3121,34 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3157,16 +3157,16 @@
         <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AD20" t="n">
         <v>990</v>
@@ -3175,10 +3175,10 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AH20" t="n">
         <v>990</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="G21" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="H21" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J21" t="n">
         <v>5.3</v>
       </c>
       <c r="K21" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3271,22 +3271,22 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3310,22 +3310,22 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G22" t="n">
         <v>2.96</v>
@@ -3376,10 +3376,10 @@
         <v>2.38</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3415,7 +3415,7 @@
         <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="W22" t="n">
         <v>1.51</v>
@@ -3505,10 +3505,10 @@
         <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
@@ -3523,7 +3523,7 @@
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>4.4</v>
@@ -3538,10 +3538,10 @@
         <v>1.68</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.76</v>
@@ -3580,19 +3580,19 @@
         <v>85</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
@@ -3607,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3646,7 +3646,7 @@
         <v>1.53</v>
       </c>
       <c r="I24" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="J24" t="n">
         <v>4.6</v>
@@ -3661,16 +3661,16 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="R24" t="n">
         <v>1.68</v>
@@ -3685,7 +3685,7 @@
         <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
         <v>1.15</v>
@@ -3772,103 +3772,103 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.98</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.84</v>
-      </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
         <v>990</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
         <v>990</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
         <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3919,97 +3919,97 @@
         <v>7.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K26" t="n">
         <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>2.18</v>
+        <v>5.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="S26" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
         <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X26" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="n">
         <v>32</v>
       </c>
-      <c r="Y26" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC26" t="n">
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>17</v>
       </c>
-      <c r="AD26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G27" t="n">
         <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>500</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.21</v>
@@ -4066,31 +4066,31 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>2.16</v>
+        <v>5.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="R27" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="S27" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
         <v>1.69</v>
@@ -4099,55 +4099,55 @@
         <v>990</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -4198,31 +4198,31 @@
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>2.52</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
         <v>1.27</v>
@@ -4231,55 +4231,55 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF28" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17</v>
-      </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
         <v>3.35</v>
@@ -4324,7 +4324,7 @@
         <v>3.95</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>3.85</v>
@@ -4333,13 +4333,13 @@
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="O29" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
         <v>1.81</v>
@@ -4348,16 +4348,16 @@
         <v>1.99</v>
       </c>
       <c r="R29" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T29" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
         <v>1.34</v>
@@ -4366,55 +4366,55 @@
         <v>1.72</v>
       </c>
       <c r="X29" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>19</v>
       </c>
-      <c r="Y29" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>28</v>
-      </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,52 +4447,52 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="G30" t="n">
         <v>4.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="I30" t="n">
         <v>1.98</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K30" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U30" t="n">
         <v>2.3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.26</v>
       </c>
       <c r="V30" t="n">
         <v>2.02</v>
@@ -4501,37 +4501,37 @@
         <v>1.3</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,7 +4540,7 @@
         <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4549,10 +4549,10 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -4582,85 +4582,85 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="G31" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="H31" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="I31" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O31" t="n">
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
         <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="X31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA31" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4669,10 +4669,10 @@
         <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK31" t="n">
         <v>16.5</v>
@@ -4684,10 +4684,10 @@
         <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO31" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -4780,13 +4780,13 @@
         <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AB32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
         <v>34</v>
@@ -4852,64 +4852,64 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2.06</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="R33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.33</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,13 +4918,13 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
@@ -4933,7 +4933,7 @@
         <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -805,7 +805,7 @@
         <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
         <v>7.6</v>
@@ -847,7 +847,7 @@
         <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK4" t="n">
         <v>48</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>55</v>
-      </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1099,7 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>1.9</v>
@@ -1114,10 +1114,10 @@
         <v>3.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
         <v>1.32</v>
@@ -1219,7 +1219,7 @@
         <v>1.39</v>
       </c>
       <c r="J6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
         <v>6.8</v>
@@ -1243,7 +1243,7 @@
         <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
         <v>1.94</v>
@@ -1255,7 +1255,7 @@
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W6" t="n">
         <v>1.1</v>
@@ -1372,10 +1372,10 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1384,7 +1384,7 @@
         <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
         <v>1.93</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>990</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
@@ -1615,10 +1615,10 @@
         <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>3.9</v>
@@ -1642,7 +1642,7 @@
         <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
         <v>2.32</v>
@@ -1654,7 +1654,7 @@
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
@@ -1690,7 +1690,7 @@
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1708,7 +1708,7 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
@@ -1750,13 +1750,13 @@
         <v>5.7</v>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1774,19 +1774,19 @@
         <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
         <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.88</v>
@@ -1795,7 +1795,7 @@
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -1804,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>9.800000000000001</v>
@@ -1813,7 +1813,7 @@
         <v>16.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>9.4</v>
@@ -1825,16 +1825,16 @@
         <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>150</v>
@@ -1912,10 +1912,10 @@
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
         <v>1.66</v>
@@ -1939,7 +1939,7 @@
         <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
@@ -1960,7 +1960,7 @@
         <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
         <v>9.800000000000001</v>
@@ -2044,10 +2044,10 @@
         <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
         <v>1.8</v>
@@ -2098,7 +2098,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>16</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G13" t="n">
         <v>1.56</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
         <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,19 +2176,19 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
         <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
         <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.82</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.78</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
         <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2521,7 +2521,7 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
         <v>1.64</v>
@@ -2572,7 +2572,7 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.35</v>
@@ -2593,10 +2593,10 @@
         <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
         <v>1.89</v>
@@ -2611,7 +2611,7 @@
         <v>2.56</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
         <v>990</v>
@@ -2638,7 +2638,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>990</v>
@@ -2707,7 +2707,7 @@
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -2719,10 +2719,10 @@
         <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
         <v>2.24</v>
@@ -2737,7 +2737,7 @@
         <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
         <v>1.54</v>
@@ -2749,7 +2749,7 @@
         <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
@@ -2779,7 +2779,7 @@
         <v>990</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
         <v>55</v>
@@ -2788,7 +2788,7 @@
         <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
         <v>140</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
         <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
         <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2863,7 +2863,7 @@
         <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
         <v>3.05</v>
@@ -2881,58 +2881,58 @@
         <v>2.06</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
         <v>13</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
         <v>6.6</v>
@@ -2977,7 +2977,7 @@
         <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.17</v>
@@ -2986,19 +2986,19 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q19" t="n">
         <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S19" t="n">
         <v>2.16</v>
@@ -3010,7 +3010,7 @@
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
         <v>2.88</v>
@@ -3064,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H20" t="n">
         <v>6.4</v>
@@ -3109,10 +3109,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3127,7 +3127,7 @@
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.54</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T20" t="n">
         <v>1.83</v>
@@ -3148,7 +3148,7 @@
         <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
         <v>11.5</v>
@@ -3244,7 +3244,7 @@
         <v>16.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K21" t="n">
         <v>7.2</v>
@@ -3256,7 +3256,7 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
@@ -3265,10 +3265,10 @@
         <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
         <v>2.16</v>
@@ -3280,7 +3280,7 @@
         <v>1.56</v>
       </c>
       <c r="V21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W21" t="n">
         <v>3.85</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G22" t="n">
         <v>2.96</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I22" t="n">
         <v>2.58</v>
@@ -3382,7 +3382,7 @@
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3397,7 +3397,7 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q22" t="n">
         <v>1.87</v>
@@ -3406,13 +3406,13 @@
         <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
         <v>1.63</v>
@@ -3505,19 +3505,19 @@
         <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3541,13 +3541,13 @@
         <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
         <v>1.17</v>
@@ -3643,7 +3643,7 @@
         <v>7.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I24" t="n">
         <v>1.66</v>
@@ -3661,19 +3661,19 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="R24" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
         <v>2.12</v>
@@ -3787,13 +3787,13 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
         <v>3.2</v>
@@ -3802,19 +3802,19 @@
         <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
         <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
@@ -3826,22 +3826,22 @@
         <v>1.59</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
         <v>990</v>
@@ -3856,7 +3856,7 @@
         <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>65</v>
@@ -3865,7 +3865,7 @@
         <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
         <v>980</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.2</v>
@@ -3940,25 +3940,25 @@
         <v>2.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
         <v>1.56</v>
       </c>
       <c r="S26" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T26" t="n">
         <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="X26" t="n">
         <v>30</v>
@@ -3967,7 +3967,7 @@
         <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3991,7 +3991,7 @@
         <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4003,7 +4003,7 @@
         <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
@@ -4048,7 +4048,7 @@
         <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
         <v>3.3</v>
@@ -4072,7 +4072,7 @@
         <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q27" t="n">
         <v>1.58</v>
@@ -4081,13 +4081,13 @@
         <v>1.56</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T27" t="n">
         <v>1.53</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V27" t="n">
         <v>1.44</v>
@@ -4111,7 +4111,7 @@
         <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
         <v>14.5</v>
@@ -4201,7 +4201,7 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="n">
         <v>1.34</v>
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
         <v>3.55</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G29" t="n">
         <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4345,19 +4345,19 @@
         <v>1.81</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
         <v>1.34</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G30" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I30" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -4480,7 +4480,7 @@
         <v>2.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R30" t="n">
         <v>1.52</v>
@@ -4489,13 +4489,13 @@
         <v>2.64</v>
       </c>
       <c r="T30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="W30" t="n">
         <v>1.3</v>
@@ -4507,7 +4507,7 @@
         <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA30" t="n">
         <v>23</v>
@@ -4519,16 +4519,16 @@
         <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>17.5</v>
@@ -4540,13 +4540,13 @@
         <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
         <v>46</v>
@@ -4582,31 +4582,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G31" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
         <v>1.31</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R31" t="n">
         <v>1.38</v>
@@ -4624,37 +4624,37 @@
         <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
         <v>55</v>
       </c>
       <c r="AA31" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>110</v>
@@ -4666,7 +4666,7 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>110</v>
@@ -4681,10 +4681,10 @@
         <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO31" t="n">
         <v>140</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G32" t="n">
         <v>1.39</v>
       </c>
       <c r="H32" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J32" t="n">
         <v>5.7</v>
@@ -4744,28 +4744,28 @@
         <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
         <v>2.58</v>
       </c>
       <c r="T32" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W32" t="n">
         <v>3.6</v>
@@ -4780,16 +4780,16 @@
         <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="AB32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="n">
         <v>140</v>
@@ -4804,7 +4804,7 @@
         <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ32" t="n">
         <v>11</v>
@@ -4816,13 +4816,13 @@
         <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
         <v>5.1</v>
       </c>
       <c r="AO32" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G33" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H33" t="n">
         <v>3.35</v>
@@ -4864,13 +4864,13 @@
         <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -4900,10 +4900,10 @@
         <v>1.98</v>
       </c>
       <c r="V33" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W33" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
         <v>4.6</v>
@@ -826,13 +826,13 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
         <v>1.78</v>
@@ -841,13 +841,13 @@
         <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
@@ -862,10 +862,10 @@
         <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
@@ -877,19 +877,19 @@
         <v>38</v>
       </c>
       <c r="AE3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
         <v>16</v>
@@ -901,7 +901,7 @@
         <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
         <v>9</v>
@@ -946,7 +946,7 @@
         <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -979,7 +979,7 @@
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>2.18</v>
@@ -1114,7 +1114,7 @@
         <v>3.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G6" t="n">
         <v>10.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="I6" t="n">
         <v>1.39</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>7.2</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.84</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,64 +1372,64 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="n">
         <v>980</v>
       </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1441,13 +1441,13 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="H8" t="n">
         <v>10.5</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AC8" t="n">
         <v>990</v>
@@ -1615,10 +1615,10 @@
         <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
         <v>3.9</v>
@@ -1639,7 +1639,7 @@
         <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
         <v>1.73</v>
@@ -1687,7 +1687,7 @@
         <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
@@ -1705,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>46</v>
@@ -1753,10 +1753,10 @@
         <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1777,7 +1777,7 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
         <v>1.86</v>
@@ -1786,16 +1786,16 @@
         <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -1810,7 +1810,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB10" t="n">
         <v>19</v>
@@ -1819,13 +1819,13 @@
         <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
         <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -1837,13 +1837,13 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK10" t="n">
         <v>75</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1915,16 +1915,16 @@
         <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
         <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
         <v>2.42</v>
@@ -1960,7 +1960,7 @@
         <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>9.800000000000001</v>
@@ -1975,7 +1975,7 @@
         <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
         <v>26</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.26</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2044,10 +2044,10 @@
         <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
         <v>1.8</v>
@@ -2065,13 +2065,13 @@
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2092,10 +2092,10 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
         <v>14.5</v>
@@ -2107,22 +2107,22 @@
         <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -2176,13 +2176,13 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q13" t="n">
         <v>1.44</v>
@@ -2326,7 +2326,7 @@
         <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
         <v>1.64</v>
@@ -2443,7 +2443,7 @@
         <v>1.38</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>3.9</v>
@@ -2464,10 +2464,10 @@
         <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2476,7 +2476,7 @@
         <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.58</v>
       </c>
       <c r="G16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H16" t="n">
         <v>6.2</v>
@@ -2572,13 +2572,13 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>4</v>
@@ -2593,7 +2593,7 @@
         <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
         <v>3.15</v>
@@ -2695,13 +2695,13 @@
         <v>2.92</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
         <v>2.62</v>
       </c>
       <c r="I17" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2722,7 +2722,7 @@
         <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
         <v>2.24</v>
@@ -2734,7 +2734,7 @@
         <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
         <v>1.98</v>
@@ -2743,7 +2743,7 @@
         <v>1.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
@@ -2866,10 +2866,10 @@
         <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
@@ -2899,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
@@ -2971,7 +2971,7 @@
         <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
         <v>4.9</v>
@@ -3004,7 +3004,7 @@
         <v>2.16</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
@@ -3100,55 +3100,55 @@
         <v>1.49</v>
       </c>
       <c r="G20" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H20" t="n">
         <v>6.4</v>
       </c>
       <c r="I20" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
         <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
         <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3157,13 +3157,13 @@
         <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>990</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.27</v>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H21" t="n">
         <v>11.5</v>
@@ -3244,7 +3244,7 @@
         <v>16.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="K21" t="n">
         <v>7.2</v>
@@ -3268,7 +3268,7 @@
         <v>1.51</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
         <v>2.16</v>
@@ -3283,7 +3283,7 @@
         <v>1.06</v>
       </c>
       <c r="W21" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="X21" t="n">
         <v>34</v>
@@ -3376,10 +3376,10 @@
         <v>2.44</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>3.95</v>
@@ -3409,13 +3409,13 @@
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
         <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
         <v>1.51</v>
@@ -3514,10 +3514,10 @@
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3532,19 +3532,19 @@
         <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
         <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
         <v>2.06</v>
@@ -3553,7 +3553,7 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
@@ -3640,13 +3640,13 @@
         <v>5.3</v>
       </c>
       <c r="G24" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="H24" t="n">
         <v>1.54</v>
       </c>
       <c r="I24" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J24" t="n">
         <v>4.6</v>
@@ -3661,88 +3661,88 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2.48</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H25" t="n">
         <v>2.98</v>
@@ -3793,37 +3793,37 @@
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
         <v>1.42</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
         <v>990</v>
@@ -3832,13 +3832,13 @@
         <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
         <v>9.199999999999999</v>
@@ -3850,7 +3850,7 @@
         <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
         <v>14.5</v>
@@ -3865,7 +3865,7 @@
         <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
         <v>980</v>
@@ -4093,7 +4093,7 @@
         <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X27" t="n">
         <v>990</v>
@@ -4315,7 +4315,7 @@
         <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
@@ -4363,7 +4363,7 @@
         <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
@@ -4453,10 +4453,10 @@
         <v>4.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -4465,40 +4465,40 @@
         <v>4.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S30" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U30" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V30" t="n">
         <v>2.08</v>
       </c>
       <c r="W30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X30" t="n">
         <v>26</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G31" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J31" t="n">
         <v>4.4</v>
@@ -4600,7 +4600,7 @@
         <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4609,19 +4609,19 @@
         <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
         <v>2.12</v>
@@ -4630,10 +4630,10 @@
         <v>1.86</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W31" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="X31" t="n">
         <v>15</v>
@@ -4642,10 +4642,10 @@
         <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA31" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AB31" t="n">
         <v>8.4</v>
@@ -4654,13 +4654,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4678,16 +4678,16 @@
         <v>16.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="n">
         <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -4720,7 +4720,7 @@
         <v>1.37</v>
       </c>
       <c r="G32" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H32" t="n">
         <v>10</v>
@@ -4744,13 +4744,13 @@
         <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.6</v>
@@ -4759,7 +4759,7 @@
         <v>2.58</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -4771,7 +4771,7 @@
         <v>3.6</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
         <v>36</v>
@@ -4780,10 +4780,10 @@
         <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
         <v>12.5</v>
@@ -4795,10 +4795,10 @@
         <v>140</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
         <v>26</v>
@@ -4861,7 +4861,7 @@
         <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4900,7 +4900,7 @@
         <v>1.98</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W33" t="n">
         <v>1.7</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="J2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.06</v>
       </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N2" t="n">
-        <v>1.17</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>2.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
         <v>1.53</v>
@@ -811,7 +811,7 @@
         <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>4.6</v>
@@ -850,7 +850,7 @@
         <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
         <v>2.86</v>
@@ -979,7 +979,7 @@
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
         <v>2.18</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="H7" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,37 +1372,37 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1429,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1528,7 +1528,7 @@
         <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>1.66</v>
@@ -1780,7 +1780,7 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
@@ -1843,13 +1843,13 @@
         <v>75</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
@@ -1906,10 +1906,10 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.68</v>
@@ -1918,13 +1918,13 @@
         <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
         <v>2.42</v>
@@ -1957,7 +1957,7 @@
         <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -1984,7 +1984,7 @@
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2026,7 +2026,7 @@
         <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2155,7 +2155,7 @@
         <v>1.33</v>
       </c>
       <c r="G13" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
@@ -2203,7 +2203,7 @@
         <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2428,7 +2428,7 @@
         <v>2.76</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2464,7 +2464,7 @@
         <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
         <v>2.22</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
         <v>6.2</v>
@@ -2569,7 +2569,7 @@
         <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -2995,7 +2995,7 @@
         <v>2.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
         <v>1.69</v>
@@ -3013,7 +3013,7 @@
         <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X19" t="n">
         <v>32</v>
@@ -3100,7 +3100,7 @@
         <v>1.49</v>
       </c>
       <c r="G20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
         <v>6.4</v>
@@ -3127,7 +3127,7 @@
         <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
         <v>1.54</v>
@@ -3142,7 +3142,7 @@
         <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
         <v>1.14</v>
@@ -3235,7 +3235,7 @@
         <v>1.27</v>
       </c>
       <c r="G21" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="H21" t="n">
         <v>11.5</v>
@@ -3244,7 +3244,7 @@
         <v>16.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K21" t="n">
         <v>7.2</v>
@@ -3256,7 +3256,7 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
@@ -3268,7 +3268,7 @@
         <v>1.51</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S21" t="n">
         <v>2.16</v>
@@ -3283,7 +3283,7 @@
         <v>1.06</v>
       </c>
       <c r="W21" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="X21" t="n">
         <v>34</v>
@@ -3385,7 +3385,7 @@
         <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3406,7 +3406,7 @@
         <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
         <v>1.7</v>
@@ -3505,7 +3505,7 @@
         <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H23" t="n">
         <v>5.8</v>
@@ -3661,7 +3661,7 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
@@ -3694,7 +3694,7 @@
         <v>36</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
         <v>15.5</v>
@@ -3742,7 +3742,7 @@
         <v>60</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="25">
@@ -3805,7 +3805,7 @@
         <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.27</v>
@@ -3949,7 +3949,7 @@
         <v>2.42</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U26" t="n">
         <v>2.12</v>
@@ -4048,7 +4048,7 @@
         <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I27" t="n">
         <v>3.3</v>
@@ -4117,7 +4117,7 @@
         <v>14.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
         <v>19</v>
@@ -4126,7 +4126,7 @@
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI27" t="n">
         <v>36</v>
@@ -4465,34 +4465,34 @@
         <v>4.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="R30" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S30" t="n">
         <v>2.42</v>
       </c>
       <c r="T30" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U30" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V30" t="n">
         <v>2.08</v>
@@ -4510,10 +4510,10 @@
         <v>14</v>
       </c>
       <c r="AA30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB30" t="n">
         <v>23</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4522,7 +4522,7 @@
         <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>990</v>
@@ -4531,7 +4531,7 @@
         <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,19 +4540,19 @@
         <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="31">
@@ -4588,16 +4588,16 @@
         <v>1.55</v>
       </c>
       <c r="H31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I31" t="n">
         <v>7.6</v>
       </c>
-      <c r="I31" t="n">
-        <v>7.8</v>
-      </c>
       <c r="J31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
@@ -4618,10 +4618,10 @@
         <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
         <v>2.12</v>
@@ -4630,7 +4630,7 @@
         <v>1.86</v>
       </c>
       <c r="V31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
         <v>2.8</v>
@@ -4642,10 +4642,10 @@
         <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA31" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB31" t="n">
         <v>8.4</v>
@@ -4654,10 +4654,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF31" t="n">
         <v>8.4</v>
@@ -4666,10 +4666,10 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="n">
         <v>12.5</v>
@@ -4744,7 +4744,7 @@
         <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
         <v>2.52</v>
@@ -4756,7 +4756,7 @@
         <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
         <v>1.95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,93 +653,93 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>1.93</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.86</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>2.86</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>10.5</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
-        <v>1.31</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>1.39</v>
+        <v>2.36</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>7.2</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>1.97</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.94</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
         <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>3.55</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG6" t="n">
         <v>18</v>
       </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>990</v>
-      </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.2</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,103 +1333,103 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.94</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1441,19 +1441,19 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,99 +1463,99 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.23</v>
+        <v>8.6</v>
       </c>
       <c r="G8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.34</v>
       </c>
-      <c r="H8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18</v>
-      </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="n">
         <v>1.37</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>3.9</v>
       </c>
       <c r="W8" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>990</v>
       </c>
       <c r="AC8" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="n">
         <v>990</v>
@@ -1567,28 +1567,28 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>310</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.86</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
         <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
         <v>5.8</v>
       </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
         <v>4.3</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>85</v>
-      </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="H11" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.27</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>2.64</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="AD11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO11" t="n">
         <v>65</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="I12" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.33</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>27</v>
+        <v>2.24</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V13" t="n">
-        <v>1.03</v>
+        <v>1.81</v>
       </c>
       <c r="W13" t="n">
-        <v>2.68</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
-        <v>2.64</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>1.61</v>
+        <v>2.6</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK14" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>6.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
         <v>20</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,103 +2548,103 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.64</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>2.56</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
         <v>20</v>
       </c>
-      <c r="Y16" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>990</v>
-      </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
@@ -2653,10 +2653,10 @@
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2683,115 +2683,115 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.92</v>
+        <v>1.56</v>
       </c>
       <c r="G17" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.15</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.54</v>
+        <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>1.47</v>
+        <v>2.56</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AH17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>980</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>2.92</v>
       </c>
       <c r="G18" t="n">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>2.84</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="W18" t="n">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI18" t="n">
         <v>55</v>
       </c>
-      <c r="AF18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="n">
         <v>36</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>28</v>
       </c>
       <c r="AM19" t="n">
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="n">
         <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
         <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S20" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
         <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3223,70 +3223,70 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.03</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W21" t="n">
-        <v>3.9</v>
+        <v>2.68</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3310,22 +3310,22 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3358,82 +3358,82 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.82</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="n">
-        <v>2.96</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
-        <v>2.44</v>
+        <v>6.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.56</v>
+        <v>7.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>2.28</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51</v>
+        <v>2.74</v>
       </c>
       <c r="X22" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
         <v>990</v>
       </c>
       <c r="Z22" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>990</v>
@@ -3442,7 +3442,7 @@
         <v>990</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
         <v>980</v>
@@ -3454,25 +3454,25 @@
         <v>990</v>
       </c>
       <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>980</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>60</v>
       </c>
       <c r="AK22" t="n">
         <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,109 +3493,109 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.58</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>2.72</v>
       </c>
       <c r="H23" t="n">
-        <v>5.8</v>
+        <v>2.98</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="Y23" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
         <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
         <v>980</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.3</v>
+        <v>2.78</v>
       </c>
       <c r="G24" t="n">
-        <v>6.4</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
-        <v>1.54</v>
+        <v>2.42</v>
       </c>
       <c r="I24" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.74</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.7</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>2.54</v>
+        <v>1.64</v>
       </c>
       <c r="W24" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AB24" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI24" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
@@ -3763,109 +3763,109 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>1.58</v>
       </c>
       <c r="G25" t="n">
-        <v>2.72</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
-        <v>2.98</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="V25" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="X25" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>980</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.49</v>
+        <v>5.4</v>
       </c>
       <c r="G26" t="n">
-        <v>1.61</v>
+        <v>6.6</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>1.55</v>
       </c>
       <c r="I26" t="n">
-        <v>7.4</v>
+        <v>1.63</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.4</v>
+        <v>2.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="R26" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="S26" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="T26" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="V26" t="n">
-        <v>1.16</v>
+        <v>2.58</v>
       </c>
       <c r="W26" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
         <v>32</v>
       </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.4</v>
+        <v>60</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>1.27</v>
       </c>
       <c r="G27" t="n">
-        <v>2.44</v>
+        <v>1.39</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>11.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>16.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>5.1</v>
+        <v>2.28</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="R27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.56</v>
       </c>
-      <c r="S27" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="W27" t="n">
-        <v>1.7</v>
+        <v>3.55</v>
       </c>
       <c r="X27" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,118 +4168,118 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>2.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="U28" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="V28" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="X28" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC28" t="n">
         <v>14</v>
       </c>
-      <c r="Y28" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AD28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL28" t="n">
         <v>36</v>
       </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>42</v>
-      </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>7.2</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>1.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="U29" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA29" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM29" t="n">
         <v>60</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>130</v>
-      </c>
       <c r="AN29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO29" t="n">
         <v>21</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="G30" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>1.91</v>
+        <v>4.8</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="S30" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z30" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK30" t="n">
         <v>23</v>
       </c>
-      <c r="AC30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>990</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>50</v>
-      </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.54</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U31" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>2.8</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF31" t="n">
         <v>15</v>
       </c>
-      <c r="Y31" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AG31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK31" t="n">
         <v>26</v>
       </c>
-      <c r="AE31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.37</v>
+        <v>4.2</v>
       </c>
       <c r="G32" t="n">
-        <v>1.38</v>
+        <v>4.7</v>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="I32" t="n">
-        <v>10.5</v>
+        <v>1.87</v>
       </c>
       <c r="J32" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="T32" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V32" t="n">
-        <v>1.1</v>
+        <v>2.14</v>
       </c>
       <c r="W32" t="n">
-        <v>3.6</v>
+        <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="AA32" t="n">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="AL32" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>160</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,120 +4843,390 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.18</v>
+        <v>1.52</v>
       </c>
       <c r="G33" t="n">
-        <v>2.42</v>
+        <v>1.53</v>
       </c>
       <c r="H33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S33" t="n">
         <v>3.35</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V33" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="W33" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
       </c>
       <c r="Y33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y35" t="n">
         <v>13</v>
       </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AC35" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AD35" t="n">
         <v>990</v>
       </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
         <v>12</v>
       </c>
-      <c r="AH33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
         <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -937,79 +937,79 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.74</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
         <v>1.31</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.2</v>
-      </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1102,7 +1102,7 @@
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
         <v>1.78</v>
@@ -1111,19 +1111,19 @@
         <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1135,7 +1135,7 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB5" t="n">
         <v>10</v>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
         <v>150</v>
@@ -1174,7 +1174,7 @@
         <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1237,10 +1237,10 @@
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1354,7 +1354,7 @@
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1390,19 +1390,19 @@
         <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
         <v>18.5</v>
@@ -1420,13 +1420,13 @@
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1621,7 +1621,7 @@
         <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1660,7 +1660,7 @@
         <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
         <v>1.54</v>
@@ -1750,7 +1750,7 @@
         <v>1.23</v>
       </c>
       <c r="G10" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="H10" t="n">
         <v>10.5</v>
@@ -1798,7 +1798,7 @@
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1927,7 +1927,7 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
         <v>1.34</v>
@@ -1960,7 +1960,7 @@
         <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1972,16 +1972,16 @@
         <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
@@ -2050,7 +2050,7 @@
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
         <v>1.43</v>
@@ -2065,10 +2065,10 @@
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -2077,7 +2077,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA12" t="n">
         <v>16</v>
@@ -2095,10 +2095,10 @@
         <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2107,19 +2107,19 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
         <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
         <v>9</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2176,16 +2176,16 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
@@ -2197,28 +2197,28 @@
         <v>1.68</v>
       </c>
       <c r="U13" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
@@ -2227,37 +2227,37 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="14">
@@ -2299,10 +2299,10 @@
         <v>6.2</v>
       </c>
       <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
@@ -2311,10 +2311,10 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
         <v>2.68</v>
@@ -2323,10 +2323,10 @@
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
         <v>1.67</v>
@@ -2356,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
         <v>22</v>
@@ -2371,13 +2371,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
@@ -2455,7 +2455,7 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
@@ -2590,7 +2590,7 @@
         <v>1.99</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
         <v>1.38</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G17" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H17" t="n">
         <v>6.4</v>
       </c>
       <c r="I17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
@@ -2710,7 +2710,7 @@
         <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2722,10 +2722,10 @@
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
         <v>1.4</v>
@@ -2734,7 +2734,7 @@
         <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
@@ -2743,7 +2743,7 @@
         <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X17" t="n">
         <v>20</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
@@ -2782,10 +2782,10 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="G18" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="I18" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2845,7 +2845,7 @@
         <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2869,16 +2869,16 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
         <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
@@ -2902,10 +2902,10 @@
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>990</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -3058,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
         <v>100</v>
@@ -3097,67 +3097,67 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H20" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.69</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.68</v>
       </c>
       <c r="U20" t="n">
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
         <v>110</v>
@@ -3199,7 +3199,7 @@
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G21" t="n">
         <v>1.59</v>
@@ -3241,13 +3241,13 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
         <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W21" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3370,19 +3370,19 @@
         <v>1.5</v>
       </c>
       <c r="G22" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="H22" t="n">
         <v>6.4</v>
       </c>
       <c r="I22" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.2</v>
@@ -3397,7 +3397,7 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q22" t="n">
         <v>1.54</v>
@@ -3406,7 +3406,7 @@
         <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
         <v>1.73</v>
@@ -3418,7 +3418,7 @@
         <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3445,7 +3445,7 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
         <v>990</v>
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="G23" t="n">
-        <v>2.72</v>
+        <v>1.34</v>
       </c>
       <c r="H23" t="n">
-        <v>2.98</v>
+        <v>11.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>16.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>1.73</v>
+        <v>2.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>1.58</v>
+        <v>3.9</v>
       </c>
       <c r="X23" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AD23" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>32</v>
+        <v>5.3</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
         <v>2.96</v>
       </c>
       <c r="H24" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I24" t="n">
         <v>2.56</v>
@@ -3655,19 +3655,19 @@
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q24" t="n">
         <v>1.87</v>
@@ -3784,7 +3784,7 @@
         <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
         <v>4.8</v>
@@ -3805,13 +3805,13 @@
         <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
         <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T25" t="n">
         <v>1.78</v>
@@ -3823,7 +3823,7 @@
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X25" t="n">
         <v>21</v>
@@ -3910,7 +3910,7 @@
         <v>5.4</v>
       </c>
       <c r="G26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H26" t="n">
         <v>1.55</v>
@@ -3931,28 +3931,28 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="S26" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U26" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
         <v>2.58</v>
@@ -3961,7 +3961,7 @@
         <v>1.18</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="n">
         <v>16</v>
@@ -3973,46 +3973,46 @@
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
         <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG26" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM26" t="n">
         <v>70</v>
       </c>
-      <c r="AM26" t="n">
-        <v>85</v>
-      </c>
       <c r="AN26" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.27</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="S27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X27" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y27" t="n">
         <v>11.5</v>
       </c>
-      <c r="I27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X27" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>16</v>
-      </c>
       <c r="AH27" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G28" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H28" t="n">
         <v>6</v>
@@ -4228,7 +4228,7 @@
         <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X28" t="n">
         <v>27</v>
@@ -4237,16 +4237,16 @@
         <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD28" t="n">
         <v>27</v>
@@ -4255,10 +4255,10 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>22</v>
@@ -4312,64 +4312,64 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z29" t="n">
         <v>980</v>
@@ -4396,10 +4396,10 @@
         <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
         <v>980</v>
@@ -4411,13 +4411,13 @@
         <v>980</v>
       </c>
       <c r="AM29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -4720,10 +4720,10 @@
         <v>4.2</v>
       </c>
       <c r="G32" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I32" t="n">
         <v>1.87</v>
@@ -4735,7 +4735,7 @@
         <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -4759,16 +4759,16 @@
         <v>2.44</v>
       </c>
       <c r="T32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
         <v>2.14</v>
       </c>
       <c r="W32" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X32" t="n">
         <v>26</v>
@@ -4798,7 +4798,7 @@
         <v>990</v>
       </c>
       <c r="AG32" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
         <v>17</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.52</v>
+        <v>2.18</v>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>2.42</v>
       </c>
       <c r="H33" t="n">
-        <v>7.6</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>7.8</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="V33" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>2.88</v>
+        <v>1.7</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AE33" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4993,10 +4993,10 @@
         <v>1.39</v>
       </c>
       <c r="H34" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
         <v>5.7</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -5026,7 +5026,7 @@
         <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T34" t="n">
         <v>1.95</v>
@@ -5038,7 +5038,7 @@
         <v>1.11</v>
       </c>
       <c r="W34" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X34" t="n">
         <v>24</v>
@@ -5050,13 +5050,13 @@
         <v>90</v>
       </c>
       <c r="AA34" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AB34" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD34" t="n">
         <v>36</v>
@@ -5071,16 +5071,16 @@
         <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="n">
         <v>11.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL34" t="n">
         <v>32</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,120 +5113,255 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.18</v>
+        <v>1.52</v>
       </c>
       <c r="G35" t="n">
-        <v>2.42</v>
+        <v>1.53</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>7.4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V35" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="W35" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF35" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AG35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SC Penedense</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Itabaiana</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G36" t="n">
+        <v>610</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I36" t="n">
+        <v>870</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K36" t="n">
+        <v>950</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X36" t="n">
         <v>990</v>
       </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
+      <c r="Y36" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
@@ -697,82 +697,82 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
         <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN2" t="n">
         <v>40</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>30</v>
-      </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.33</v>
@@ -826,22 +826,22 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
         <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -946,13 +946,13 @@
         <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -982,10 +982,10 @@
         <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
         <v>1.31</v>
@@ -1009,7 +1009,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1105,7 +1105,7 @@
         <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1114,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1138,7 +1138,7 @@
         <v>310</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1150,7 +1150,7 @@
         <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
         <v>3.75</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
         <v>2.36</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.32</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1240,31 +1240,31 @@
         <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W6" t="n">
         <v>1.36</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
         <v>18</v>
@@ -1276,7 +1276,7 @@
         <v>17.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>13.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
         <v>2.32</v>
@@ -1369,13 +1369,13 @@
         <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1384,7 +1384,7 @@
         <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1402,13 +1402,13 @@
         <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
         <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I8" t="n">
         <v>1.34</v>
@@ -1492,7 +1492,7 @@
         <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1534,7 +1534,7 @@
         <v>990</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z8" t="n">
         <v>12.5</v>
@@ -1567,13 +1567,13 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AK8" t="n">
         <v>130</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
         <v>3.1</v>
@@ -1642,16 +1642,16 @@
         <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
         <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
         <v>1.86</v>
@@ -1660,19 +1660,19 @@
         <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,16 +1681,16 @@
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
@@ -1771,25 +1771,25 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
         <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
         <v>1.87</v>
@@ -1888,10 +1888,10 @@
         <v>2.22</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -1906,25 +1906,25 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
         <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
         <v>1.93</v>
@@ -1933,7 +1933,7 @@
         <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X11" t="n">
         <v>10.5</v>
@@ -1948,7 +1948,7 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
@@ -1969,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
         <v>27</v>
@@ -1981,13 +1981,13 @@
         <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2047,10 +2047,10 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
         <v>1.43</v>
@@ -2065,10 +2065,10 @@
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -2077,13 +2077,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA12" t="n">
         <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
@@ -2092,13 +2092,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2107,22 +2107,22 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK12" t="n">
         <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2185,7 +2185,7 @@
         <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
@@ -2200,13 +2200,13 @@
         <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2215,10 +2215,10 @@
         <v>15.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
@@ -2227,10 +2227,10 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2257,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -2293,10 +2293,10 @@
         <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
@@ -2311,31 +2311,31 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
         <v>2.42</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
         <v>2.6</v>
@@ -2353,10 +2353,10 @@
         <v>150</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>22</v>
@@ -2371,13 +2371,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
@@ -2602,7 +2602,7 @@
         <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
         <v>1.48</v>
@@ -2611,7 +2611,7 @@
         <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2656,7 +2656,7 @@
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2710,7 +2710,7 @@
         <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2719,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
         <v>2.02</v>
@@ -2743,7 +2743,7 @@
         <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X17" t="n">
         <v>20</v>
@@ -2836,7 +2836,7 @@
         <v>2.72</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2875,7 +2875,7 @@
         <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
         <v>1.5</v>
@@ -2965,7 +2965,7 @@
         <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
@@ -2980,7 +2980,7 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3004,10 +3004,10 @@
         <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.29</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H20" t="n">
         <v>7.2</v>
@@ -3145,10 +3145,10 @@
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X20" t="n">
         <v>36</v>
@@ -3157,7 +3157,7 @@
         <v>46</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I21" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K21" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>2.52</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.13</v>
       </c>
-      <c r="P21" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.04</v>
-      </c>
       <c r="W21" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G22" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.2</v>
@@ -3397,7 +3397,7 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q22" t="n">
         <v>1.54</v>
@@ -3418,7 +3418,7 @@
         <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H24" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
@@ -3685,7 +3685,7 @@
         <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
         <v>1.51</v>
@@ -3694,7 +3694,7 @@
         <v>990</v>
       </c>
       <c r="Y24" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="n">
         <v>980</v>
@@ -3727,13 +3727,13 @@
         <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
         <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
@@ -3823,7 +3823,7 @@
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X25" t="n">
         <v>21</v>
@@ -3949,7 +3949,7 @@
         <v>2.08</v>
       </c>
       <c r="T26" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
         <v>2.4</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="H27" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
@@ -4090,7 +4090,7 @@
         <v>1.94</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W27" t="n">
         <v>1.6</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
         <v>1.58</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I28" t="n">
         <v>7.4</v>
@@ -4192,10 +4192,10 @@
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -4264,7 +4264,7 @@
         <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
         <v>16.5</v>
@@ -4282,7 +4282,7 @@
         <v>7.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -4315,49 +4315,49 @@
         <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
         <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S29" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="T29" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U29" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V29" t="n">
         <v>1.45</v>
@@ -4366,10 +4366,10 @@
         <v>1.71</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
         <v>980</v>
@@ -4417,7 +4417,7 @@
         <v>14.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4495,7 +4495,7 @@
         <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W30" t="n">
         <v>2</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
         <v>2.36</v>
@@ -4591,13 +4591,13 @@
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4630,7 +4630,7 @@
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W31" t="n">
         <v>1.73</v>
@@ -4720,7 +4720,7 @@
         <v>4.2</v>
       </c>
       <c r="G32" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="n">
         <v>1.81</v>
@@ -4729,7 +4729,7 @@
         <v>1.87</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K32" t="n">
         <v>4.6</v>
@@ -4747,22 +4747,22 @@
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.44</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
         <v>2.14</v>
@@ -4993,16 +4993,16 @@
         <v>1.39</v>
       </c>
       <c r="H34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I34" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10</v>
       </c>
       <c r="J34" t="n">
         <v>5.7</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.29</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -5026,7 +5026,7 @@
         <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T34" t="n">
         <v>1.95</v>
@@ -5038,7 +5038,7 @@
         <v>1.11</v>
       </c>
       <c r="W34" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X34" t="n">
         <v>24</v>
@@ -5050,10 +5050,10 @@
         <v>90</v>
       </c>
       <c r="AA34" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC34" t="n">
         <v>12.5</v>
@@ -5065,7 +5065,7 @@
         <v>140</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG34" t="n">
         <v>10</v>
@@ -5086,10 +5086,10 @@
         <v>32</v>
       </c>
       <c r="AM34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO34" t="n">
         <v>160</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.52</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.53</v>
-      </c>
       <c r="H35" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J35" t="n">
         <v>4.6</v>
@@ -5143,7 +5143,7 @@
         <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
         <v>4</v>
@@ -5155,16 +5155,16 @@
         <v>2.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
         <v>1.86</v>
@@ -5173,19 +5173,19 @@
         <v>1.14</v>
       </c>
       <c r="W35" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA35" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB35" t="n">
         <v>8.199999999999999</v>
@@ -5194,13 +5194,13 @@
         <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG35" t="n">
         <v>10.5</v>
@@ -5209,22 +5209,22 @@
         <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="n">
         <v>12.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO35" t="n">
         <v>150</v>
@@ -5269,7 +5269,7 @@
         <v>870</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
         <v>950</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -670,16 +670,16 @@
         <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
@@ -700,13 +700,13 @@
         <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.73</v>
@@ -718,40 +718,40 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
         <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
@@ -763,13 +763,13 @@
         <v>46</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="n">
         <v>15.5</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>990</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>990</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>990</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="I4" t="n">
-        <v>2.54</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -967,37 +967,37 @@
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
         <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.26</v>
@@ -1105,7 +1105,7 @@
         <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1114,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1132,28 +1132,28 @@
         <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA5" t="n">
         <v>310</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="n">
         <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>30</v>
@@ -1162,19 +1162,19 @@
         <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
         <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
         <v>3.75</v>
@@ -1216,7 +1216,7 @@
         <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1255,10 +1255,10 @@
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
         <v>16.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
         <v>2.32</v>
@@ -1372,10 +1372,10 @@
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1414,7 +1414,7 @@
         <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>1.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,16 +1510,16 @@
         <v>3.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
         <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
@@ -1528,16 +1528,16 @@
         <v>3.9</v>
       </c>
       <c r="W8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X8" t="n">
         <v>990</v>
       </c>
       <c r="Y8" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1546,13 +1546,13 @@
         <v>990</v>
       </c>
       <c r="AC8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
         <v>110</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.64</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.8</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
@@ -1639,52 +1639,52 @@
         <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1693,10 +1693,10 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1759,19 +1759,19 @@
         <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1780,25 +1780,25 @@
         <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
         <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>990</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.22</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
@@ -1927,25 +1927,25 @@
         <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
         <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
         <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
         <v>8</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="n">
         <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2047,13 +2047,13 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
@@ -2065,34 +2065,34 @@
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W12" t="n">
         <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA12" t="n">
         <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
         <v>46</v>
@@ -2113,16 +2113,16 @@
         <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.26</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.28</v>
-      </c>
       <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2176,13 +2176,13 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
         <v>1.8</v>
@@ -2194,16 +2194,16 @@
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
         <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X13" t="n">
         <v>17.5</v>
@@ -2215,19 +2215,19 @@
         <v>15.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>24</v>
@@ -2239,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
@@ -2257,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
@@ -2299,13 +2299,13 @@
         <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,34 +2317,34 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q14" t="n">
         <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V14" t="n">
         <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
@@ -2386,7 +2386,7 @@
         <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
         <v>6.2</v>
@@ -2425,10 +2425,10 @@
         <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I15" t="n">
         <v>3.25</v>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,7 +2452,7 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
         <v>1.76</v>
@@ -2500,7 +2500,7 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2515,7 +2515,7 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G16" t="n">
         <v>2.76</v>
@@ -2587,19 +2587,19 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="n">
         <v>2.24</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G17" t="n">
         <v>1.63</v>
@@ -2701,13 +2701,13 @@
         <v>6.4</v>
       </c>
       <c r="I17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.37</v>
@@ -2725,7 +2725,7 @@
         <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
         <v>1.4</v>
@@ -2734,70 +2734,70 @@
         <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
         <v>29</v>
       </c>
-      <c r="Z17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>34</v>
-      </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG17" t="n">
         <v>9.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>2.86</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>2.72</v>
@@ -2845,13 +2845,13 @@
         <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
@@ -2869,7 +2869,7 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
         <v>1.98</v>
@@ -2893,7 +2893,7 @@
         <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
@@ -2902,7 +2902,7 @@
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
         <v>19</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
@@ -2992,7 +2992,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
         <v>1.86</v>
@@ -3004,7 +3004,7 @@
         <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
         <v>2.14</v>
@@ -3013,7 +3013,7 @@
         <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3028,7 +3028,7 @@
         <v>95</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
         <v>9</v>
@@ -3061,7 +3061,7 @@
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3103,10 +3103,10 @@
         <v>1.46</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
         <v>5.2</v>
@@ -3115,19 +3115,19 @@
         <v>6.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q20" t="n">
         <v>1.45</v>
@@ -3136,7 +3136,7 @@
         <v>1.74</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
         <v>1.69</v>
@@ -3148,7 +3148,7 @@
         <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X20" t="n">
         <v>36</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.18</v>
@@ -3271,10 +3271,10 @@
         <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
         <v>2.2</v>
@@ -3283,7 +3283,7 @@
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3301,7 +3301,7 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H22" t="n">
         <v>6.2</v>
@@ -3379,13 +3379,13 @@
         <v>7.6</v>
       </c>
       <c r="J22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3418,7 +3418,7 @@
         <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3505,19 +3505,19 @@
         <v>1.27</v>
       </c>
       <c r="G23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H23" t="n">
         <v>11.5</v>
       </c>
       <c r="I23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J23" t="n">
         <v>5.9</v>
       </c>
       <c r="K23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>1.19</v>
@@ -3526,19 +3526,19 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q23" t="n">
         <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="n">
         <v>2.36</v>
@@ -3547,13 +3547,13 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
         <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>32</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
         <v>17.5</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
         <v>3.95</v>
@@ -3685,7 +3685,7 @@
         <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W24" t="n">
         <v>1.51</v>
@@ -3694,7 +3694,7 @@
         <v>990</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="Z24" t="n">
         <v>980</v>
@@ -3775,19 +3775,19 @@
         <v>1.58</v>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,16 +3802,16 @@
         <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
         <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T25" t="n">
         <v>1.78</v>
@@ -3826,13 +3826,13 @@
         <v>2.48</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3841,25 +3841,25 @@
         <v>10</v>
       </c>
       <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF25" t="n">
         <v>11</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
         <v>25</v>
       </c>
-      <c r="AE25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
-      </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="n">
         <v>19</v>
@@ -3868,13 +3868,13 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G26" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I26" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="J26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,67 +3931,67 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="R26" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="W26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z26" t="n">
         <v>16</v>
       </c>
-      <c r="Z26" t="n">
-        <v>15</v>
-      </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG26" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>30</v>
@@ -4000,19 +4000,19 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="27">
@@ -4045,10 +4045,10 @@
         <v>2.56</v>
       </c>
       <c r="G27" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="I27" t="n">
         <v>3.15</v>
@@ -4057,7 +4057,7 @@
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,10 +4066,10 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
         <v>1.73</v>
@@ -4084,10 +4084,10 @@
         <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
         <v>1.46</v>
@@ -4105,7 +4105,7 @@
         <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
         <v>14.5</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
         <v>6.2</v>
@@ -4192,7 +4192,7 @@
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.24</v>
@@ -4216,7 +4216,7 @@
         <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
         <v>1.71</v>
@@ -4228,7 +4228,7 @@
         <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X28" t="n">
         <v>27</v>
@@ -4264,7 +4264,7 @@
         <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
         <v>16.5</v>
@@ -4282,7 +4282,7 @@
         <v>7.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -4327,7 +4327,7 @@
         <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
@@ -4339,10 +4339,10 @@
         <v>4.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
         <v>1.62</v>
@@ -4351,13 +4351,13 @@
         <v>1.54</v>
       </c>
       <c r="S29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U29" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V29" t="n">
         <v>1.45</v>
@@ -4366,10 +4366,10 @@
         <v>1.71</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="Z29" t="n">
         <v>980</v>
@@ -4378,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="AB29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
         <v>10</v>
@@ -4396,7 +4396,7 @@
         <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>44</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4486,19 +4486,19 @@
         <v>1.31</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T30" t="n">
         <v>1.84</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V30" t="n">
         <v>1.26</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X30" t="n">
         <v>14</v>
@@ -4534,7 +4534,7 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
         <v>24</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -4612,7 +4612,7 @@
         <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q31" t="n">
         <v>2</v>
@@ -4630,10 +4630,10 @@
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
@@ -4648,7 +4648,7 @@
         <v>75</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
         <v>8.4</v>
@@ -4672,7 +4672,7 @@
         <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -4723,16 +4723,16 @@
         <v>4.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I32" t="n">
         <v>1.87</v>
       </c>
       <c r="J32" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.28</v>
@@ -4753,16 +4753,16 @@
         <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S32" t="n">
         <v>2.48</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U32" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V32" t="n">
         <v>2.14</v>
@@ -4795,10 +4795,10 @@
         <v>18</v>
       </c>
       <c r="AF32" t="n">
-        <v>990</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH32" t="n">
         <v>17</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
         <v>8.6</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G33" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
         <v>3.85</v>
@@ -4867,7 +4867,7 @@
         <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.44</v>
@@ -4882,10 +4882,10 @@
         <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
@@ -4903,7 +4903,7 @@
         <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
@@ -4993,16 +4993,16 @@
         <v>1.39</v>
       </c>
       <c r="H34" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K34" t="n">
         <v>5.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.29</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -5029,7 +5029,7 @@
         <v>2.62</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="G35" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H35" t="n">
         <v>7.8</v>
@@ -5134,19 +5134,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K35" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
@@ -5155,46 +5155,46 @@
         <v>2.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
         <v>1.41</v>
       </c>
       <c r="S35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U35" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W35" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y35" t="n">
         <v>24</v>
       </c>
       <c r="Z35" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA35" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE35" t="n">
         <v>110</v>
@@ -5206,13 +5206,13 @@
         <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK35" t="n">
         <v>16</v>
@@ -5227,7 +5227,7 @@
         <v>7.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -724,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
@@ -733,7 +733,7 @@
         <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -745,16 +745,16 @@
         <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>80</v>
@@ -772,7 +772,7 @@
         <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="H3" t="n">
         <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -826,37 +826,37 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>990</v>
@@ -883,7 +883,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -955,7 +955,7 @@
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -988,7 +988,7 @@
         <v>1.81</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
@@ -1075,10 +1075,10 @@
         <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I5" t="n">
         <v>10.5</v>
@@ -1102,10 +1102,10 @@
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1114,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1132,10 +1132,10 @@
         <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AB5" t="n">
         <v>8.6</v>
@@ -1147,25 +1147,25 @@
         <v>34</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
         <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
         <v>40</v>
@@ -1174,7 +1174,7 @@
         <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
         <v>3.75</v>
@@ -1255,7 +1255,7 @@
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
@@ -1273,7 +1273,7 @@
         <v>38</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>8.800000000000001</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
         <v>2.32</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="I8" t="n">
         <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="K8" t="n">
         <v>7.2</v>
@@ -1501,46 +1501,46 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
         <v>1.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S8" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
         <v>990</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
         <v>990</v>
@@ -1549,31 +1549,31 @@
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AG8" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AH8" t="n">
         <v>990</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="AK8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL8" t="n">
         <v>130</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>95</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9">
@@ -1615,61 +1615,61 @@
         <v>2.68</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H9" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
         <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1684,13 +1684,13 @@
         <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>990</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1771,7 +1771,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1783,16 +1783,16 @@
         <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
         <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1906,19 +1906,19 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
         <v>4.5</v>
@@ -1933,7 +1933,7 @@
         <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
         <v>10.5</v>
@@ -1948,7 +1948,7 @@
         <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
@@ -1966,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
@@ -2047,10 +2047,10 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
@@ -2071,22 +2071,22 @@
         <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA12" t="n">
         <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
         <v>9.800000000000001</v>
@@ -2110,7 +2110,7 @@
         <v>160</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
         <v>80</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO12" t="n">
         <v>9</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2176,13 +2176,13 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
         <v>1.8</v>
@@ -2194,28 +2194,28 @@
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="n">
         <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB13" t="n">
         <v>15</v>
@@ -2224,7 +2224,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2242,10 +2242,10 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
         <v>42</v>
@@ -2254,10 +2254,10 @@
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -2305,7 +2305,7 @@
         <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,16 +2317,16 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
@@ -2359,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
         <v>65</v>
@@ -2380,19 +2380,19 @@
         <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2443,28 +2443,28 @@
         <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
@@ -2473,7 +2473,7 @@
         <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.55</v>
@@ -2587,7 +2587,7 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>1.87</v>
@@ -2596,73 +2596,73 @@
         <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
         <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
         <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="H17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -2725,7 +2725,7 @@
         <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
         <v>1.4</v>
@@ -2740,61 +2740,61 @@
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X17" t="n">
         <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
         <v>55</v>
       </c>
       <c r="AA17" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG17" t="n">
         <v>9.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
         <v>17.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>130</v>
@@ -2833,10 +2833,10 @@
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I18" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2845,22 +2845,22 @@
         <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
         <v>1.26</v>
@@ -2869,10 +2869,10 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V18" t="n">
         <v>1.53</v>
@@ -2881,10 +2881,10 @@
         <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -2908,10 +2908,10 @@
         <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
         <v>4.4</v>
@@ -2980,25 +2980,25 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
         <v>1.86</v>
       </c>
       <c r="R19" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
         <v>3.1</v>
@@ -3007,13 +3007,13 @@
         <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
         <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3034,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
         <v>55</v>
@@ -3061,13 +3061,13 @@
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>1.46</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="n">
         <v>8.800000000000001</v>
@@ -3145,7 +3145,7 @@
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
         <v>3.15</v>
@@ -3235,16 +3235,16 @@
         <v>1.41</v>
       </c>
       <c r="G21" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -3259,7 +3259,7 @@
         <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
         <v>2.74</v>
@@ -3301,7 +3301,7 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I22" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K22" t="n">
         <v>5.3</v>
@@ -3391,25 +3391,25 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
         <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
         <v>2.1</v>
@@ -3418,7 +3418,7 @@
         <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3427,19 +3427,19 @@
         <v>990</v>
       </c>
       <c r="Z22" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AC22" t="n">
         <v>990</v>
       </c>
       <c r="AD22" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G23" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="H23" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.19</v>
@@ -3526,16 +3526,16 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
         <v>1.59</v>
@@ -3547,19 +3547,19 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V23" t="n">
         <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3571,7 +3571,7 @@
         <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD23" t="n">
         <v>55</v>
@@ -3586,19 +3586,19 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK23" t="n">
         <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3652,7 +3652,7 @@
         <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
@@ -3661,7 +3661,7 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
@@ -3682,7 +3682,7 @@
         <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
         <v>1.59</v>
@@ -3691,10 +3691,10 @@
         <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>980</v>
@@ -3703,13 +3703,13 @@
         <v>980</v>
       </c>
       <c r="AB24" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>990</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>980</v>
@@ -3718,31 +3718,31 @@
         <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>980</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>55</v>
-      </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G25" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3808,13 +3808,13 @@
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
         <v>2.76</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U25" t="n">
         <v>2.06</v>
@@ -3823,7 +3823,7 @@
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X25" t="n">
         <v>24</v>
@@ -3832,7 +3832,7 @@
         <v>28</v>
       </c>
       <c r="Z25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3868,7 +3868,7 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G26" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="H26" t="n">
         <v>1.54</v>
       </c>
       <c r="I26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,31 +3931,31 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="W26" t="n">
         <v>1.19</v>
@@ -3964,7 +3964,7 @@
         <v>40</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z26" t="n">
         <v>16</v>
@@ -3979,7 +3979,7 @@
         <v>15.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -3991,7 +3991,7 @@
         <v>28</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>30</v>
@@ -4000,16 +4000,16 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO26" t="n">
         <v>6.2</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H27" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4066,34 +4066,34 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
         <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="n">
         <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X27" t="n">
         <v>990</v>
@@ -4102,7 +4102,7 @@
         <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
         <v>55</v>
@@ -4120,13 +4120,13 @@
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI27" t="n">
         <v>55</v>
@@ -4186,13 +4186,13 @@
         <v>6.2</v>
       </c>
       <c r="I28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J28" t="n">
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.24</v>
@@ -4210,16 +4210,16 @@
         <v>2.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
         <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U28" t="n">
         <v>2.14</v>
@@ -4231,22 +4231,22 @@
         <v>2.74</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="Y28" t="n">
         <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC28" t="n">
         <v>12</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>12.5</v>
       </c>
       <c r="AD28" t="n">
         <v>27</v>
@@ -4267,19 +4267,19 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4315,7 +4315,7 @@
         <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -4324,10 +4324,10 @@
         <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
@@ -4357,13 +4357,13 @@
         <v>1.57</v>
       </c>
       <c r="U29" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>26</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G30" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4477,7 +4477,7 @@
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q30" t="n">
         <v>2</v>
@@ -4489,16 +4489,16 @@
         <v>3.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
         <v>1.97</v>
       </c>
       <c r="V30" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X30" t="n">
         <v>14</v>
@@ -4507,7 +4507,7 @@
         <v>16</v>
       </c>
       <c r="Z30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4525,7 +4525,7 @@
         <v>70</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -4534,25 +4534,25 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
         <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -4594,10 +4594,10 @@
         <v>3.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4609,10 +4609,10 @@
         <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q31" t="n">
         <v>2</v>
@@ -4621,28 +4621,28 @@
         <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W31" t="n">
         <v>1.75</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
         <v>13.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
         <v>75</v>
@@ -4651,13 +4651,13 @@
         <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
         <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
@@ -4687,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.83</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.87</v>
       </c>
       <c r="J32" t="n">
         <v>4.3</v>
@@ -4741,70 +4741,70 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q32" t="n">
         <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="W32" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
         <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
         <v>10.5</v>
       </c>
       <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
         <v>18</v>
       </c>
-      <c r="AF32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>980</v>
-      </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AJ32" t="n">
         <v>980</v>
@@ -4813,16 +4813,16 @@
         <v>50</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="33">
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4897,7 +4897,7 @@
         <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>1.35</v>
@@ -4924,13 +4924,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
@@ -4993,10 +4993,10 @@
         <v>1.39</v>
       </c>
       <c r="H34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I34" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10</v>
       </c>
       <c r="J34" t="n">
         <v>5.6</v>
@@ -5026,7 +5026,7 @@
         <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T34" t="n">
         <v>1.94</v>
@@ -5041,7 +5041,7 @@
         <v>3.55</v>
       </c>
       <c r="X34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
         <v>36</v>
@@ -5059,19 +5059,19 @@
         <v>12.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
         <v>140</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG34" t="n">
         <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI34" t="n">
         <v>110</v>
@@ -5080,10 +5080,10 @@
         <v>11.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM34" t="n">
         <v>130</v>
@@ -5131,7 +5131,7 @@
         <v>7.8</v>
       </c>
       <c r="I35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
         <v>4.9</v>
@@ -5140,37 +5140,37 @@
         <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R35" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T35" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V35" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W35" t="n">
         <v>3</v>
@@ -5179,22 +5179,22 @@
         <v>16.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA35" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
         <v>110</v>
@@ -5203,31 +5203,31 @@
         <v>8</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO35" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -673,19 +673,19 @@
         <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,7 +700,7 @@
         <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
@@ -715,34 +715,34 @@
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
         <v>29</v>
@@ -751,28 +751,28 @@
         <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AK2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL2" t="n">
         <v>46</v>
       </c>
-      <c r="AL2" t="n">
-        <v>50</v>
-      </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="H3" t="n">
         <v>7.6</v>
@@ -814,13 +814,13 @@
         <v>12.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -835,13 +835,13 @@
         <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="T3" t="n">
         <v>2.06</v>
@@ -850,10 +850,10 @@
         <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -883,7 +883,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -937,70 +937,70 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="J4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.35</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
         <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>16</v>
@@ -1009,28 +1009,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1075,16 +1075,16 @@
         <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
         <v>8.6</v>
       </c>
       <c r="I5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
         <v>5.1</v>
@@ -1096,16 +1096,16 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1114,43 +1114,43 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA5" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>34</v>
       </c>
       <c r="AE5" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1159,25 +1159,25 @@
         <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
         <v>3.75</v>
@@ -1216,7 +1216,7 @@
         <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1237,10 +1237,10 @@
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1252,10 +1252,10 @@
         <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
@@ -1264,55 +1264,55 @@
         <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>18</v>
       </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H7" t="n">
         <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
@@ -1390,16 +1390,16 @@
         <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
         <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1408,34 +1408,34 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I8" t="n">
         <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,25 +1501,25 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
@@ -1528,13 +1528,13 @@
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
@@ -1546,7 +1546,7 @@
         <v>990</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
         <v>11.5</v>
@@ -1555,25 +1555,25 @@
         <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AH8" t="n">
         <v>990</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AK8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -1612,97 +1612,97 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1753,13 +1753,13 @@
         <v>1.31</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
         <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
@@ -1771,22 +1771,22 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
@@ -1798,7 +1798,7 @@
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
@@ -1912,10 +1912,10 @@
         <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
@@ -1930,10 +1930,10 @@
         <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X11" t="n">
         <v>10.5</v>
@@ -1948,7 +1948,7 @@
         <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
@@ -1957,7 +1957,7 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -1966,16 +1966,16 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK11" t="n">
         <v>27</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1984,10 +1984,10 @@
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G12" t="n">
         <v>5.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.9</v>
       </c>
       <c r="H12" t="n">
         <v>1.67</v>
@@ -2047,19 +2047,19 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
         <v>2.06</v>
@@ -2068,16 +2068,16 @@
         <v>2.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA12" t="n">
         <v>16</v>
@@ -2095,10 +2095,10 @@
         <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2113,13 +2113,13 @@
         <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="n">
         <v>9</v>
@@ -2170,19 +2170,19 @@
         <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
         <v>1.8</v>
@@ -2200,7 +2200,7 @@
         <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
         <v>1.4</v>
@@ -2218,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
@@ -2242,7 +2242,7 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
@@ -2293,10 +2293,10 @@
         <v>1.59</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
         <v>4.6</v>
@@ -2305,10 +2305,10 @@
         <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>6</v>
@@ -2326,7 +2326,7 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
@@ -2341,10 +2341,10 @@
         <v>2.68</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
@@ -2362,13 +2362,13 @@
         <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
         <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
@@ -2377,7 +2377,7 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>14</v>
@@ -2392,7 +2392,7 @@
         <v>5.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
         <v>3.25</v>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2455,7 +2455,7 @@
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
@@ -2476,28 +2476,28 @@
         <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
         <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
         <v>18.5</v>
@@ -2512,22 +2512,22 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -2572,22 +2572,22 @@
         <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
         <v>1.87</v>
@@ -2596,10 +2596,10 @@
         <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
         <v>2.24</v>
@@ -2608,61 +2608,61 @@
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
         <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>48</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>42</v>
-      </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
         <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G17" t="n">
         <v>1.66</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2716,88 +2716,88 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
         <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
         <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
         <v>9.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK17" t="n">
         <v>17.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM17" t="n">
         <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.47</v>
@@ -2851,7 +2851,7 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
@@ -2860,19 +2860,19 @@
         <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
         <v>1.53</v>
@@ -2881,13 +2881,13 @@
         <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AA18" t="n">
         <v>980</v>
@@ -2905,13 +2905,13 @@
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
@@ -2926,13 +2926,13 @@
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G19" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.4</v>
       </c>
       <c r="J19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2992,16 +2992,16 @@
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3013,19 +3013,19 @@
         <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
@@ -3046,10 +3046,10 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
         <v>23</v>
@@ -3058,10 +3058,10 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN19" t="n">
         <v>12.5</v>
@@ -3112,7 +3112,7 @@
         <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.17</v>
@@ -3145,34 +3145,34 @@
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
         <v>3.15</v>
       </c>
       <c r="X20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD20" t="n">
         <v>36</v>
       </c>
-      <c r="Y20" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>32</v>
-      </c>
       <c r="AE20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
         <v>12</v>
@@ -3181,16 +3181,16 @@
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK20" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -3202,7 +3202,7 @@
         <v>4.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H21" t="n">
         <v>6.8</v>
       </c>
       <c r="I21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J21" t="n">
         <v>5.2</v>
@@ -3250,10 +3250,10 @@
         <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
         <v>6</v>
@@ -3268,10 +3268,10 @@
         <v>1.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T21" t="n">
         <v>1.68</v>
@@ -3286,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3310,10 +3310,10 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
         <v>8.199999999999999</v>
@@ -3397,16 +3397,16 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q22" t="n">
         <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
         <v>1.75</v>
@@ -3415,10 +3415,10 @@
         <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3427,28 +3427,28 @@
         <v>990</v>
       </c>
       <c r="Z22" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD22" t="n">
         <v>990</v>
       </c>
-      <c r="AC22" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>40</v>
-      </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AG22" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="n">
         <v>990</v>
@@ -3457,19 +3457,19 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3511,7 +3511,7 @@
         <v>12.5</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
         <v>6.4</v>
@@ -3523,7 +3523,7 @@
         <v>1.19</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>5.4</v>
@@ -3547,16 +3547,16 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W23" t="n">
         <v>4.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,25 +3568,25 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12</v>
-      </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3595,16 +3595,16 @@
         <v>10.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G24" t="n">
         <v>2.96</v>
@@ -3649,10 +3649,10 @@
         <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
@@ -3673,10 +3673,10 @@
         <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T24" t="n">
         <v>1.7</v>
@@ -3697,10 +3697,10 @@
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AB24" t="n">
         <v>13.5</v>
@@ -3712,13 +3712,13 @@
         <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
         <v>17.5</v>
@@ -3727,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>280</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
@@ -3739,7 +3739,7 @@
         <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G25" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
         <v>6.8</v>
@@ -3799,7 +3799,7 @@
         <v>4.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
         <v>2.18</v>
@@ -3814,7 +3814,7 @@
         <v>2.76</v>
       </c>
       <c r="T25" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
         <v>2.06</v>
@@ -3826,13 +3826,13 @@
         <v>2.5</v>
       </c>
       <c r="X25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z25" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3841,40 +3841,40 @@
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AE25" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H26" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I26" t="n">
         <v>1.62</v>
@@ -3943,10 +3943,10 @@
         <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
@@ -3961,40 +3961,40 @@
         <v>1.19</v>
       </c>
       <c r="X26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="n">
         <v>15.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE26" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>18</v>
-      </c>
       <c r="AF26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG26" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4003,16 +4003,16 @@
         <v>65</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G27" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
         <v>3.55</v>
@@ -4075,7 +4075,7 @@
         <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4084,43 +4084,43 @@
         <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
         <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
@@ -4192,13 +4192,13 @@
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
         <v>5.2</v>
@@ -4210,13 +4210,13 @@
         <v>2.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
         <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
         <v>1.73</v>
@@ -4225,13 +4225,13 @@
         <v>2.14</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
         <v>2.74</v>
       </c>
       <c r="X28" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="Y28" t="n">
         <v>34</v>
@@ -4267,19 +4267,19 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4330,7 +4330,7 @@
         <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
@@ -4360,37 +4360,37 @@
         <v>2.46</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Y29" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
         <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
@@ -4399,22 +4399,22 @@
         <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO29" t="n">
         <v>22</v>
@@ -4450,43 +4450,43 @@
         <v>1.86</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
         <v>1.86</v>
@@ -4495,64 +4495,64 @@
         <v>1.97</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X30" t="n">
         <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
         <v>38</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
         <v>70</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
         <v>40</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -4591,7 +4591,7 @@
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4600,7 +4600,7 @@
         <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4636,7 +4636,7 @@
         <v>1.75</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
         <v>13.5</v>
@@ -4645,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB31" t="n">
         <v>9.6</v>
@@ -4654,13 +4654,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG31" t="n">
         <v>11.5</v>
@@ -4681,7 +4681,7 @@
         <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
         <v>21</v>
@@ -4717,37 +4717,37 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G32" t="n">
         <v>4.7</v>
       </c>
       <c r="H32" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I32" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.3</v>
       </c>
-      <c r="K32" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.59</v>
@@ -4756,7 +4756,7 @@
         <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
@@ -4780,10 +4780,10 @@
         <v>13.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
@@ -4795,7 +4795,7 @@
         <v>17</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         <v>26</v>
       </c>
       <c r="AJ32" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AK32" t="n">
         <v>50</v>
@@ -4816,13 +4816,13 @@
         <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="n">
-        <v>990</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -4855,22 +4855,22 @@
         <v>2.24</v>
       </c>
       <c r="G33" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
         <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -4894,58 +4894,58 @@
         <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
         <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
         <v>15</v>
       </c>
-      <c r="Y33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>980</v>
-      </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -5023,7 +5023,7 @@
         <v>1.64</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S34" t="n">
         <v>2.6</v>
@@ -5044,16 +5044,16 @@
         <v>25</v>
       </c>
       <c r="Y34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA34" t="n">
         <v>330</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC34" t="n">
         <v>12.5</v>
@@ -5062,10 +5062,10 @@
         <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG34" t="n">
         <v>10</v>
@@ -5089,10 +5089,10 @@
         <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I35" t="n">
         <v>7.8</v>
-      </c>
-      <c r="I35" t="n">
-        <v>8</v>
       </c>
       <c r="J35" t="n">
         <v>4.9</v>
@@ -5140,34 +5140,34 @@
         <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
         <v>1.43</v>
       </c>
       <c r="S35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T35" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V35" t="n">
         <v>1.14</v>
@@ -5182,25 +5182,25 @@
         <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA35" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE35" t="n">
         <v>110</v>
       </c>
       <c r="AF35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG35" t="n">
         <v>10</v>
@@ -5209,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="AI35" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>
@@ -5227,7 +5227,7 @@
         <v>7.2</v>
       </c>
       <c r="AO35" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -670,16 +670,16 @@
         <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -709,7 +709,7 @@
         <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,7 +718,7 @@
         <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AK2" t="n">
         <v>40</v>
@@ -811,16 +811,16 @@
         <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
         <v>1.84</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -892,10 +892,10 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
         <v>2.02</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.45</v>
@@ -970,7 +970,7 @@
         <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -988,49 +988,49 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
         <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
         <v>85</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
         <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
         <v>1.11</v>
@@ -1126,16 +1126,16 @@
         <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="AB5" t="n">
         <v>8.4</v>
@@ -1144,19 +1144,19 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF5" t="n">
         <v>8.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>150</v>
@@ -1177,7 +1177,7 @@
         <v>7.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
         <v>3.75</v>
@@ -1216,10 +1216,10 @@
         <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1255,7 +1255,7 @@
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
@@ -1309,7 +1309,7 @@
         <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
         <v>17.5</v>
@@ -1345,10 +1345,10 @@
         <v>2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>3.95</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1390,7 +1390,7 @@
         <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
         <v>1.75</v>
@@ -1399,7 +1399,7 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1414,7 +1414,7 @@
         <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1426,16 +1426,16 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
         <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="J8" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,25 +1501,25 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
         <v>1.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
@@ -1528,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
         <v>55</v>
@@ -1540,13 +1540,13 @@
         <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>990</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AD8" t="n">
         <v>11.5</v>
@@ -1573,7 +1573,7 @@
         <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.98</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.05</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1657,13 +1657,13 @@
         <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
         <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -1684,10 +1684,10 @@
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G10" t="n">
         <v>1.31</v>
@@ -1756,13 +1756,13 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J10" t="n">
         <v>6.2</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1783,16 +1783,16 @@
         <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
@@ -1975,7 +1975,7 @@
         <v>28</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1984,7 +1984,7 @@
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>65</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H12" t="n">
         <v>1.67</v>
@@ -2053,7 +2053,7 @@
         <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2068,16 +2068,16 @@
         <v>2.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA12" t="n">
         <v>16</v>
@@ -2086,7 +2086,7 @@
         <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>9.800000000000001</v>
@@ -2098,7 +2098,7 @@
         <v>44</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2158,10 +2158,10 @@
         <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2206,7 +2206,7 @@
         <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2218,13 +2218,13 @@
         <v>28</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2311,22 +2311,22 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
         <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
@@ -2341,13 +2341,13 @@
         <v>2.68</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
         <v>150</v>
@@ -2365,7 +2365,7 @@
         <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2377,10 +2377,10 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
         <v>25</v>
@@ -2389,7 +2389,7 @@
         <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO14" t="n">
         <v>60</v>
@@ -2428,46 +2428,46 @@
         <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
         <v>1.45</v>
@@ -2476,43 +2476,43 @@
         <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
         <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
         <v>70</v>
@@ -2524,10 +2524,10 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="G16" t="n">
         <v>2.78</v>
@@ -2566,7 +2566,7 @@
         <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2584,7 +2584,7 @@
         <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
         <v>1.97</v>
@@ -2596,7 +2596,7 @@
         <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
         <v>1.71</v>
@@ -2605,7 +2605,7 @@
         <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
         <v>1.56</v>
@@ -2617,10 +2617,10 @@
         <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AB16" t="n">
         <v>12.5</v>
@@ -2632,7 +2632,7 @@
         <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
         <v>19</v>
@@ -2644,16 +2644,16 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
@@ -2662,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>1.61</v>
       </c>
       <c r="G17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
         <v>6.8</v>
@@ -2716,37 +2716,37 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
         <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
         <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
         <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>26</v>
@@ -2755,19 +2755,19 @@
         <v>130</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AE17" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="n">
         <v>10</v>
@@ -2776,25 +2776,25 @@
         <v>9.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
         <v>15.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL17" t="n">
         <v>150</v>
       </c>
       <c r="AM17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I18" t="n">
         <v>2.86</v>
@@ -2845,13 +2845,13 @@
         <v>3.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
@@ -2860,19 +2860,19 @@
         <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>1.53</v>
@@ -2881,19 +2881,19 @@
         <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
         <v>17.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
@@ -2902,25 +2902,25 @@
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
         <v>18.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2929,10 +2929,10 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2965,10 +2965,10 @@
         <v>1.94</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
         <v>4.4</v>
@@ -3013,13 +3013,13 @@
         <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
         <v>32</v>
@@ -3061,10 +3061,10 @@
         <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>50</v>
@@ -3112,7 +3112,7 @@
         <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.17</v>
@@ -3157,7 +3157,7 @@
         <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
         <v>120</v>
@@ -3235,10 +3235,10 @@
         <v>1.42</v>
       </c>
       <c r="G21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
         <v>8.6</v>
@@ -3283,7 +3283,7 @@
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>
@@ -3376,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
         <v>4.8</v>
@@ -3385,7 +3385,7 @@
         <v>5.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3397,16 +3397,16 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
         <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.75</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
         <v>42</v>
@@ -3445,13 +3445,13 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AH22" t="n">
-        <v>990</v>
+        <v>95</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3460,10 +3460,10 @@
         <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3559,7 +3559,7 @@
         <v>55</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3574,7 +3574,7 @@
         <v>15.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3598,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3640,7 +3640,7 @@
         <v>2.74</v>
       </c>
       <c r="G24" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H24" t="n">
         <v>2.54</v>
@@ -3688,7 +3688,7 @@
         <v>1.59</v>
       </c>
       <c r="W24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X24" t="n">
         <v>16.5</v>
@@ -3814,7 +3814,7 @@
         <v>2.76</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
         <v>2.06</v>
@@ -3829,7 +3829,7 @@
         <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="n">
         <v>230</v>
@@ -3844,7 +3844,7 @@
         <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="n">
         <v>420</v>
@@ -3937,7 +3937,7 @@
         <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="n">
         <v>1.43</v>
@@ -3952,7 +3952,7 @@
         <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V26" t="n">
         <v>2.6</v>
@@ -4096,7 +4096,7 @@
         <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
         <v>14</v>
@@ -4105,7 +4105,7 @@
         <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="n">
         <v>9.800000000000001</v>
@@ -4120,25 +4120,25 @@
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL27" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G28" t="n">
         <v>1.57</v>
@@ -4186,13 +4186,13 @@
         <v>6.2</v>
       </c>
       <c r="I28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J28" t="n">
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.24</v>
@@ -4213,31 +4213,31 @@
         <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U28" t="n">
         <v>2.14</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W28" t="n">
         <v>2.74</v>
       </c>
       <c r="X28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H29" t="n">
         <v>2.94</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.21</v>
@@ -4351,7 +4351,7 @@
         <v>1.54</v>
       </c>
       <c r="S29" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T29" t="n">
         <v>1.57</v>
@@ -4360,13 +4360,13 @@
         <v>2.46</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X29" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="n">
         <v>30</v>
@@ -4375,7 +4375,7 @@
         <v>70</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="AB29" t="n">
         <v>14.5</v>
@@ -4399,10 +4399,10 @@
         <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="n">
         <v>50</v>
@@ -4477,7 +4477,7 @@
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" t="n">
         <v>1.98</v>
@@ -4600,7 +4600,7 @@
         <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4657,7 +4657,7 @@
         <v>15.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AF31" t="n">
         <v>14.5</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G32" t="n">
         <v>4.6</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4.7</v>
       </c>
       <c r="H32" t="n">
         <v>1.81</v>
       </c>
       <c r="I32" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J32" t="n">
         <v>4.2</v>
@@ -4741,19 +4741,19 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S32" t="n">
         <v>2.44</v>
@@ -4762,10 +4762,10 @@
         <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
         <v>1.27</v>
@@ -4795,7 +4795,7 @@
         <v>17</v>
       </c>
       <c r="AF32" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AG32" t="n">
         <v>18</v>
@@ -4816,10 +4816,10 @@
         <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="n">
         <v>8.199999999999999</v>
@@ -4855,13 +4855,13 @@
         <v>2.24</v>
       </c>
       <c r="G33" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4870,19 +4870,19 @@
         <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q33" t="n">
         <v>2.08</v>
@@ -4894,7 +4894,7 @@
         <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="n">
         <v>2.02</v>
@@ -4903,19 +4903,19 @@
         <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X33" t="n">
         <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z33" t="n">
         <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
         <v>11</v>
@@ -4927,16 +4927,16 @@
         <v>18.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="n">
         <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
@@ -4945,16 +4945,16 @@
         <v>38</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>9.6</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -5038,7 +5038,7 @@
         <v>1.11</v>
       </c>
       <c r="W34" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X34" t="n">
         <v>25</v>
@@ -5062,13 +5062,13 @@
         <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH34" t="n">
         <v>25</v>
@@ -5149,16 +5149,16 @@
         <v>4.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
         <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R35" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S35" t="n">
         <v>3.15</v>
@@ -5167,7 +5167,7 @@
         <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V35" t="n">
         <v>1.14</v>
@@ -5209,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -670,61 +670,61 @@
         <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
         <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
         <v>16</v>
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
         <v>40</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
         <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AC3" t="n">
         <v>42</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -892,10 +892,10 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
         <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1012,16 +1012,16 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
         <v>85</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
         <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
         <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X5" t="n">
         <v>18</v>
@@ -1141,13 +1141,13 @@
         <v>8.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
         <v>8.6</v>
@@ -1159,7 +1159,7 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
         <v>12.5</v>
@@ -1168,16 +1168,16 @@
         <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
         <v>7.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I6" t="n">
         <v>2.32</v>
@@ -1225,22 +1225,22 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1255,7 +1255,7 @@
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
@@ -1285,10 +1285,10 @@
         <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
@@ -1297,22 +1297,22 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
         <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
         <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.74</v>
@@ -1393,7 +1393,7 @@
         <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
         <v>17.5</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="I8" t="n">
         <v>1.32</v>
@@ -1495,7 +1495,7 @@
         <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1507,40 +1507,40 @@
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
         <v>1.89</v>
       </c>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
         <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
         <v>990</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="I9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1630,58 +1630,58 @@
         <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
         <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.9</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
       </c>
       <c r="V9" t="n">
         <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>26</v>
@@ -1690,13 +1690,13 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="n">
         <v>270</v>
@@ -1750,49 +1750,49 @@
         <v>1.24</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H10" t="n">
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
         <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
         <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>990</v>
@@ -1837,10 +1837,10 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1900,7 +1900,7 @@
         <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1912,16 +1912,16 @@
         <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
         <v>2.04</v>
@@ -1945,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>8</v>
@@ -1966,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
@@ -1984,10 +1984,10 @@
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>5.7</v>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.67</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.68</v>
-      </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2053,7 +2053,7 @@
         <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2065,13 +2065,13 @@
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W12" t="n">
         <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2080,34 +2080,34 @@
         <v>9.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="n">
         <v>75</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>2.22</v>
@@ -2170,34 +2170,34 @@
         <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
         <v>1.8</v>
@@ -2209,22 +2209,22 @@
         <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
         <v>28</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2236,28 +2236,28 @@
         <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
         <v>1.59</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
         <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
         <v>32</v>
@@ -2350,10 +2350,10 @@
         <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2362,7 +2362,7 @@
         <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
         <v>12</v>
@@ -2377,16 +2377,16 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
         <v>25</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
         <v>5.7</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2449,37 +2449,37 @@
         <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>24</v>
@@ -2488,31 +2488,31 @@
         <v>220</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
         <v>160</v>
       </c>
       <c r="AJ15" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="n">
         <v>70</v>
@@ -2524,10 +2524,10 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="G16" t="n">
         <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2575,46 +2575,46 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
         <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -2626,16 +2626,16 @@
         <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
         <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -2647,19 +2647,19 @@
         <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AO16" t="n">
         <v>48</v>
@@ -2710,13 +2710,13 @@
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -2731,13 +2731,13 @@
         <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
         <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V17" t="n">
         <v>1.17</v>
@@ -2758,19 +2758,19 @@
         <v>190</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>90</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
         <v>9.6</v>
@@ -2797,7 +2797,7 @@
         <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2836,7 +2836,7 @@
         <v>2.76</v>
       </c>
       <c r="I18" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2845,94 +2845,94 @@
         <v>3.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W18" t="n">
         <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
         <v>17.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK18" t="n">
         <v>95</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3010,16 +3010,16 @@
         <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
         <v>32</v>
@@ -3061,10 +3061,10 @@
         <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO19" t="n">
         <v>50</v>
@@ -3100,22 +3100,22 @@
         <v>1.39</v>
       </c>
       <c r="G20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H20" t="n">
         <v>7.8</v>
       </c>
       <c r="I20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3130,28 +3130,28 @@
         <v>2.84</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
         <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X20" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
         <v>38</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
@@ -3172,10 +3172,10 @@
         <v>32</v>
       </c>
       <c r="AE20" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
@@ -3187,7 +3187,7 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
         <v>14.5</v>
@@ -3199,10 +3199,10 @@
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -3244,46 +3244,46 @@
         <v>8.6</v>
       </c>
       <c r="J21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
         <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>
@@ -3367,58 +3367,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G22" t="n">
         <v>1.52</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S22" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.3</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
         <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3460,7 +3460,7 @@
         <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
         <v>80</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G23" t="n">
         <v>1.28</v>
@@ -3520,10 +3520,10 @@
         <v>7.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>5.4</v>
@@ -3532,16 +3532,16 @@
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
         <v>2.02</v>
@@ -3580,7 +3580,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG23" t="n">
         <v>11.5</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H24" t="n">
         <v>2.54</v>
@@ -3655,7 +3655,7 @@
         <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3667,16 +3667,16 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
         <v>1.37</v>
       </c>
       <c r="S24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
         <v>1.7</v>
@@ -3694,16 +3694,16 @@
         <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
         <v>95</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>8.6</v>
@@ -3778,25 +3778,25 @@
         <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I25" t="n">
         <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K25" t="n">
         <v>4.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
@@ -3805,40 +3805,40 @@
         <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
         <v>1.46</v>
       </c>
       <c r="S25" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="T25" t="n">
         <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
         <v>44</v>
       </c>
       <c r="Z25" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>10.5</v>
@@ -3850,7 +3850,7 @@
         <v>420</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G26" t="n">
         <v>6.2</v>
@@ -3916,46 +3916,46 @@
         <v>1.55</v>
       </c>
       <c r="I26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V26" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W26" t="n">
         <v>1.19</v>
@@ -4012,7 +4012,7 @@
         <v>46</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
         <v>3.25</v>
@@ -4060,13 +4060,13 @@
         <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
         <v>1.37</v>
@@ -4075,25 +4075,25 @@
         <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
         <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
@@ -4105,7 +4105,7 @@
         <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
         <v>9.800000000000001</v>
@@ -4114,7 +4114,7 @@
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>980</v>
@@ -4192,31 +4192,31 @@
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R28" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S28" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="T28" t="n">
         <v>1.71</v>
@@ -4237,7 +4237,7 @@
         <v>75</v>
       </c>
       <c r="Z28" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4264,13 +4264,13 @@
         <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL28" t="n">
         <v>60</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
         <v>3.85</v>
@@ -4330,40 +4330,40 @@
         <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R29" t="n">
         <v>1.54</v>
       </c>
       <c r="S29" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T29" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U29" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V29" t="n">
         <v>1.45</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>42</v>
@@ -4378,10 +4378,10 @@
         <v>210</v>
       </c>
       <c r="AB29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
@@ -4390,10 +4390,10 @@
         <v>190</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>16</v>
@@ -4414,7 +4414,7 @@
         <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>22</v>
@@ -4447,49 +4447,49 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G30" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.34</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.32</v>
       </c>
       <c r="S30" t="n">
         <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U30" t="n">
         <v>1.97</v>
@@ -4501,22 +4501,22 @@
         <v>2.12</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
         <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
         <v>20</v>
@@ -4531,7 +4531,7 @@
         <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>75</v>
@@ -4540,19 +4540,19 @@
         <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="AN30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>2.18</v>
       </c>
       <c r="G31" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -4594,28 +4594,28 @@
         <v>3.75</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R31" t="n">
         <v>1.31</v>
@@ -4645,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="n">
         <v>9.6</v>
@@ -4723,7 +4723,7 @@
         <v>4.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I32" t="n">
         <v>1.83</v>
@@ -4735,34 +4735,34 @@
         <v>4.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U32" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V32" t="n">
         <v>2.2</v>
@@ -4780,7 +4780,7 @@
         <v>13.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
         <v>24</v>
@@ -4789,7 +4789,7 @@
         <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE32" t="n">
         <v>17</v>
@@ -4813,13 +4813,13 @@
         <v>50</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
         <v>200</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO32" t="n">
         <v>8.199999999999999</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G33" t="n">
         <v>2.36</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4870,31 +4870,31 @@
         <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U33" t="n">
         <v>2.02</v>
@@ -4909,25 +4909,25 @@
         <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE33" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
         <v>15</v>
@@ -4942,13 +4942,13 @@
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="n">
         <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.39</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>9.6</v>
@@ -5005,31 +5005,31 @@
         <v>5.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T34" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
@@ -5050,7 +5050,7 @@
         <v>85</v>
       </c>
       <c r="AA34" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AB34" t="n">
         <v>9.4</v>
@@ -5062,10 +5062,10 @@
         <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG34" t="n">
         <v>9.800000000000001</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.49</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H35" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
         <v>4.9</v>
@@ -5140,13 +5140,13 @@
         <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.28</v>
@@ -5158,16 +5158,16 @@
         <v>1.82</v>
       </c>
       <c r="R35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S35" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
         <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V35" t="n">
         <v>1.14</v>
@@ -5179,10 +5179,10 @@
         <v>16.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA35" t="n">
         <v>230</v>
@@ -5203,10 +5203,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
         <v>95</v>
@@ -5224,7 +5224,7 @@
         <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO35" t="n">
         <v>130</v>
@@ -5278,25 +5278,25 @@
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N36" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P36" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="T36" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -670,10 +670,10 @@
         <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.24</v>
@@ -682,7 +682,7 @@
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -697,10 +697,10 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
@@ -709,13 +709,13 @@
         <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -733,10 +733,10 @@
         <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AK2" t="n">
         <v>40</v>
@@ -772,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
         <v>5.3</v>
@@ -829,19 +829,19 @@
         <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>2.06</v>
@@ -853,7 +853,7 @@
         <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -895,7 +895,7 @@
         <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,16 +940,16 @@
         <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
         <v>1.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
@@ -961,19 +961,19 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
         <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -982,16 +982,16 @@
         <v>1.8</v>
       </c>
       <c r="U4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V4" t="n">
         <v>2</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.98</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>16</v>
@@ -1012,25 +1012,25 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.7</v>
       </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
         <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
         <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -1213,13 +1213,13 @@
         <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
         <v>2.32</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1252,13 +1252,13 @@
         <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
         <v>16.5</v>
@@ -1309,10 +1309,10 @@
         <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
         <v>2.32</v>
@@ -1351,55 +1351,55 @@
         <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
         <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1408,19 +1408,19 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1447,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="I8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>7.8</v>
@@ -1510,19 +1510,19 @@
         <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
         <v>4.1</v>
@@ -1534,7 +1534,7 @@
         <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="H9" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P9" t="n">
         <v>1.67</v>
@@ -1648,37 +1648,37 @@
         <v>2.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
         <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
@@ -1693,16 +1693,16 @@
         <v>32</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
         <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
         <v>1.29</v>
@@ -1756,22 +1756,22 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.24</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.15</v>
@@ -1780,13 +1780,13 @@
         <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
@@ -1795,7 +1795,7 @@
         <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
         <v>4.3</v>
@@ -1804,7 +1804,7 @@
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.22</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
@@ -1906,13 +1906,13 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
         <v>2.4</v>
@@ -1924,19 +1924,19 @@
         <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
@@ -1948,7 +1948,7 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
@@ -1972,16 +1972,16 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
         <v>24</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G12" t="n">
         <v>5.9</v>
       </c>
       <c r="H12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.66</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.67</v>
-      </c>
       <c r="J12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2056,7 +2056,7 @@
         <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
         <v>1.9</v>
@@ -2065,7 +2065,7 @@
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
         <v>1.2</v>
@@ -2074,7 +2074,7 @@
         <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
         <v>9.4</v>
@@ -2086,10 +2086,10 @@
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
         <v>16.5</v>
@@ -2101,13 +2101,13 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK12" t="n">
         <v>75</v>
@@ -2116,10 +2116,10 @@
         <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
         <v>9</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2173,16 +2173,16 @@
         <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
         <v>1.76</v>
@@ -2191,7 +2191,7 @@
         <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
         <v>1.66</v>
@@ -2200,13 +2200,13 @@
         <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2215,25 +2215,25 @@
         <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>15.5</v>
@@ -2254,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G14" t="n">
         <v>1.59</v>
@@ -2296,7 +2296,7 @@
         <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
         <v>4.7</v>
@@ -2305,55 +2305,55 @@
         <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
         <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2362,13 +2362,13 @@
         <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
         <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
@@ -2377,7 +2377,7 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
         <v>14</v>
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
         <v>3</v>
       </c>
       <c r="T15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.63</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>220</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>160</v>
       </c>
       <c r="AJ15" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
         <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>2.66</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
@@ -2590,7 +2590,7 @@
         <v>1.99</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.38</v>
@@ -2599,67 +2599,67 @@
         <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
         <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>48</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2710,13 +2710,13 @@
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -2731,73 +2731,73 @@
         <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W17" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="X17" t="n">
         <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA17" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
         <v>9.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
         <v>16.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO17" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2848,19 +2848,19 @@
         <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
         <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
@@ -2869,10 +2869,10 @@
         <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>1.54</v>
@@ -2884,10 +2884,10 @@
         <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
         <v>46</v>
@@ -2899,7 +2899,7 @@
         <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>85</v>
@@ -2908,16 +2908,16 @@
         <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AK18" t="n">
         <v>95</v>
@@ -2965,82 +2965,82 @@
         <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
         <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
         <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
@@ -3052,7 +3052,7 @@
         <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
         <v>20</v>
@@ -3061,13 +3061,13 @@
         <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
         <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3100,16 +3100,16 @@
         <v>1.39</v>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J20" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -3121,28 +3121,28 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R20" t="n">
         <v>1.76</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V20" t="n">
         <v>1.12</v>
@@ -3154,28 +3154,28 @@
         <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
         <v>290</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
@@ -3184,7 +3184,7 @@
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="n">
         <v>13.5</v>
@@ -3193,13 +3193,13 @@
         <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO20" t="n">
         <v>95</v>
@@ -3244,10 +3244,10 @@
         <v>8.6</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.26</v>
@@ -3268,22 +3268,22 @@
         <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T21" t="n">
         <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3373,16 +3373,16 @@
         <v>1.52</v>
       </c>
       <c r="H22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -3391,7 +3391,7 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.19</v>
@@ -3409,13 +3409,13 @@
         <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="V22" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W22" t="n">
         <v>2.88</v>
@@ -3451,7 +3451,7 @@
         <v>20</v>
       </c>
       <c r="AH22" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G23" t="n">
         <v>1.28</v>
@@ -3511,43 +3511,43 @@
         <v>12.5</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K23" t="n">
         <v>7.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V23" t="n">
         <v>1.07</v>
@@ -3556,7 +3556,7 @@
         <v>4.5</v>
       </c>
       <c r="X23" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
         <v>120</v>
@@ -3574,7 +3574,7 @@
         <v>15.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
         <v>2.54</v>
@@ -3652,7 +3652,7 @@
         <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.4</v>
@@ -3667,34 +3667,34 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
         <v>1.59</v>
       </c>
       <c r="W24" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
         <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>18</v>
@@ -3709,22 +3709,22 @@
         <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF24" t="n">
         <v>36</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AJ24" t="n">
         <v>280</v>
@@ -3733,16 +3733,16 @@
         <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>1.58</v>
       </c>
       <c r="G25" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
         <v>6.8</v>
@@ -3787,7 +3787,7 @@
         <v>4.4</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.34</v>
@@ -3796,7 +3796,7 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
@@ -3817,13 +3817,13 @@
         <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V25" t="n">
         <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3862,10 +3862,10 @@
         <v>330</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL25" t="n">
         <v>34</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G26" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="I26" t="n">
         <v>1.6</v>
@@ -3937,16 +3937,16 @@
         <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
@@ -3955,13 +3955,13 @@
         <v>2.42</v>
       </c>
       <c r="V26" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W26" t="n">
         <v>1.19</v>
       </c>
       <c r="X26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="n">
         <v>15.5</v>
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -3994,7 +3994,7 @@
         <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4006,10 +4006,10 @@
         <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO26" t="n">
         <v>5.2</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G27" t="n">
         <v>2.58</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.46</v>
@@ -4075,7 +4075,7 @@
         <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4087,7 +4087,7 @@
         <v>1.84</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
         <v>1.44</v>
@@ -4096,55 +4096,55 @@
         <v>1.63</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
         <v>14</v>
       </c>
-      <c r="Z27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>27</v>
-      </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK27" t="n">
         <v>30</v>
       </c>
-      <c r="AG27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>110</v>
-      </c>
       <c r="AL27" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4180,19 +4180,19 @@
         <v>1.5</v>
       </c>
       <c r="G28" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H28" t="n">
         <v>6.2</v>
       </c>
       <c r="I28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J28" t="n">
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.29</v>
@@ -4204,31 +4204,31 @@
         <v>5.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S28" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T28" t="n">
         <v>1.71</v>
       </c>
       <c r="U28" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W28" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X28" t="n">
         <v>46</v>
@@ -4246,7 +4246,7 @@
         <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD28" t="n">
         <v>27</v>
@@ -4276,10 +4276,10 @@
         <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4327,7 +4327,7 @@
         <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.31</v>
@@ -4336,19 +4336,19 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
         <v>1.64</v>
       </c>
       <c r="R29" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="n">
         <v>2.58</v>
@@ -4357,7 +4357,7 @@
         <v>1.59</v>
       </c>
       <c r="U29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V29" t="n">
         <v>1.45</v>
@@ -4372,25 +4372,25 @@
         <v>30</v>
       </c>
       <c r="Z29" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
         <v>210</v>
       </c>
       <c r="AB29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
         <v>9.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -4402,7 +4402,7 @@
         <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
         <v>50</v>
@@ -4417,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="G30" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
         <v>3.75</v>
@@ -4474,25 +4474,25 @@
         <v>3.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R30" t="n">
         <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V30" t="n">
         <v>1.24</v>
@@ -4507,10 +4507,10 @@
         <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA30" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="n">
         <v>8.6</v>
@@ -4525,7 +4525,7 @@
         <v>70</v>
       </c>
       <c r="AF30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
         <v>10.5</v>
@@ -4534,22 +4534,22 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK30" t="n">
         <v>21</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>20</v>
       </c>
       <c r="AL30" t="n">
         <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>430</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO30" t="n">
         <v>85</v>
@@ -4588,16 +4588,16 @@
         <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.43</v>
@@ -4609,7 +4609,7 @@
         <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P31" t="n">
         <v>1.84</v>
@@ -4621,7 +4621,7 @@
         <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
         <v>1.8</v>
@@ -4633,7 +4633,7 @@
         <v>1.36</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
@@ -4642,7 +4642,7 @@
         <v>13.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA31" t="n">
         <v>75</v>
@@ -4651,10 +4651,10 @@
         <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>120</v>
@@ -4672,10 +4672,10 @@
         <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>42</v>
@@ -4684,10 +4684,10 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4723,7 +4723,7 @@
         <v>4.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I32" t="n">
         <v>1.83</v>
@@ -4732,37 +4732,37 @@
         <v>4.2</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S32" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
         <v>2.2</v>
@@ -4771,16 +4771,16 @@
         <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
         <v>13</v>
       </c>
-      <c r="Z32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB32" t="n">
         <v>24</v>
@@ -4792,37 +4792,37 @@
         <v>10</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
         <v>18</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
         <v>26</v>
       </c>
       <c r="AJ32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="n">
         <v>50</v>
       </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="33">
@@ -4855,13 +4855,13 @@
         <v>2.28</v>
       </c>
       <c r="G33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4876,13 +4876,13 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
         <v>2.12</v>
@@ -4894,16 +4894,16 @@
         <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U33" t="n">
         <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X33" t="n">
         <v>13</v>
@@ -4924,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
@@ -4945,7 +4945,7 @@
         <v>95</v>
       </c>
       <c r="AK33" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4957,7 +4957,7 @@
         <v>55</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>9.6</v>
@@ -4999,10 +4999,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K34" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.31</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -5023,16 +5023,16 @@
         <v>1.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S34" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T34" t="n">
         <v>1.95</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
         <v>1.11</v>
@@ -5050,10 +5050,10 @@
         <v>85</v>
       </c>
       <c r="AA34" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC34" t="n">
         <v>12.5</v>
@@ -5089,7 +5089,7 @@
         <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO34" t="n">
         <v>140</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>7.8</v>
@@ -5140,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
@@ -5149,10 +5149,10 @@
         <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q35" t="n">
         <v>1.82</v>
@@ -5164,10 +5164,10 @@
         <v>3.1</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U35" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V35" t="n">
         <v>1.14</v>
@@ -5179,22 +5179,22 @@
         <v>16.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z35" t="n">
         <v>65</v>
       </c>
       <c r="AA35" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE35" t="n">
         <v>110</v>
@@ -5203,7 +5203,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
         <v>26</v>
@@ -5215,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="AK35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL35" t="n">
         <v>38</v>
@@ -5224,7 +5224,7 @@
         <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO35" t="n">
         <v>130</v>
@@ -5281,13 +5281,13 @@
         <v>1.17</v>
       </c>
       <c r="N36" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="O36" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="Q36" t="n">
         <v>1.17</v>
@@ -5296,7 +5296,7 @@
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="T36" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,25 +676,25 @@
         <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>2.2</v>
@@ -703,13 +703,13 @@
         <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
         <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -721,7 +721,7 @@
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -829,7 +829,7 @@
         <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -838,28 +838,28 @@
         <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
@@ -883,7 +883,7 @@
         <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>1.88</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.99</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>4.1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>1.88</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V5" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W5" t="n">
-        <v>2.68</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
       </c>
       <c r="Y5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="n">
         <v>25</v>
       </c>
-      <c r="Z5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>200</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>1.59</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.32</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>2.66</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL6" t="n">
         <v>38</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
-      </c>
       <c r="AM6" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>9.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>17.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB7" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10</v>
-      </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.6</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>55</v>
       </c>
-      <c r="Y8" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>390</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>240</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO8" t="n">
-        <v>3.7</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.72</v>
+        <v>9.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.92</v>
+        <v>11.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>1.29</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1.32</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.1</v>
       </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.25</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.76</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.14</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>4.3</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>260</v>
+        <v>9.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
         <v>26</v>
       </c>
-      <c r="AC10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Coruripe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.4</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>12</v>
       </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.8</v>
+        <v>1.24</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>1.66</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="K12" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W12" t="n">
         <v>4.4</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.2</v>
-      </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>30</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>46</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>160</v>
+        <v>10.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>3.85</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>2.24</v>
       </c>
       <c r="H13" t="n">
-        <v>2.18</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S13" t="n">
         <v>4.7</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="n">
         <v>12</v>
       </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>25</v>
-      </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.58</v>
+        <v>5.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.59</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>1.65</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>1.66</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>2.52</v>
       </c>
       <c r="W14" t="n">
-        <v>2.68</v>
+        <v>1.2</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>9.4</v>
       </c>
       <c r="AA14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>160</v>
       </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.7</v>
+        <v>90</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>1.57</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>2.72</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>85</v>
+        <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO15" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="G16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.38</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>32</v>
-      </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="G17" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>2.22</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
         <v>23</v>
       </c>
-      <c r="AE17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10</v>
-      </c>
       <c r="AG17" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.9</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>85</v>
       </c>
-      <c r="AF18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>200</v>
-      </c>
       <c r="AK18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="n">
         <v>95</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>130</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>48</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2.76</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>2.86</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE19" t="n">
         <v>32</v>
       </c>
-      <c r="AA19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>48</v>
-      </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN19" t="n">
         <v>24</v>
       </c>
-      <c r="AK19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
         <v>9.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL20" t="n">
         <v>34</v>
       </c>
-      <c r="Y20" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.42</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.17</v>
-      </c>
       <c r="P21" t="n">
-        <v>2.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>3.05</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>990</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.1</v>
+        <v>42</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.49</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="T22" t="n">
         <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V22" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>2.88</v>
+        <v>2.06</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>22</v>
       </c>
-      <c r="AC22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AK22" t="n">
         <v>20</v>
       </c>
-      <c r="AH22" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
       <c r="AL22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="H23" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="K23" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="S23" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="U23" t="n">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="W23" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="X23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD23" t="n">
         <v>32</v>
       </c>
-      <c r="Y23" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>120</v>
-      </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO23" t="n">
         <v>95</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>1.48</v>
       </c>
       <c r="G24" t="n">
-        <v>2.96</v>
+        <v>1.54</v>
       </c>
       <c r="H24" t="n">
-        <v>2.54</v>
+        <v>6.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.59</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.51</v>
+        <v>2.84</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="Z24" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH24" t="n">
         <v>95</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>13</v>
       </c>
-      <c r="AC24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>280</v>
-      </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>6.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,55 +3763,55 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.58</v>
+        <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>2.84</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
         <v>1.84</v>
@@ -3820,64 +3820,64 @@
         <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="X25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
         <v>20</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO25" t="n">
         <v>44</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="G26" t="n">
-        <v>6.4</v>
+        <v>2.96</v>
       </c>
       <c r="H26" t="n">
-        <v>1.53</v>
+        <v>2.54</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6</v>
+        <v>2.68</v>
       </c>
       <c r="J26" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>2.6</v>
+        <v>1.59</v>
       </c>
       <c r="W26" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="X26" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>16.5</v>
+        <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AG26" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AM26" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
@@ -4033,118 +4033,118 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.42</v>
+        <v>1.58</v>
       </c>
       <c r="G27" t="n">
-        <v>2.58</v>
+        <v>1.61</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>3.9</v>
+        <v>2.84</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD27" t="n">
         <v>48</v>
       </c>
-      <c r="AA27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>14</v>
-      </c>
       <c r="AE27" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>36</v>
-      </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>28</v>
+        <v>7.8</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="G28" t="n">
-        <v>1.56</v>
+        <v>6.2</v>
       </c>
       <c r="H28" t="n">
-        <v>6.2</v>
+        <v>1.53</v>
       </c>
       <c r="I28" t="n">
-        <v>7.6</v>
+        <v>1.59</v>
       </c>
       <c r="J28" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.57</v>
       </c>
-      <c r="R28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U28" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="V28" t="n">
-        <v>1.15</v>
+        <v>2.68</v>
       </c>
       <c r="W28" t="n">
-        <v>2.78</v>
+        <v>1.19</v>
       </c>
       <c r="X28" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="Z28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
         <v>65</v>
       </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.9</v>
+        <v>48</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.28</v>
+        <v>1.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>14.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R29" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>2.42</v>
+        <v>1.81</v>
       </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>4.1</v>
       </c>
       <c r="X29" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Y29" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="AD29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>190</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK29" t="n">
         <v>15</v>
       </c>
-      <c r="AE29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>50</v>
-      </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="G30" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="H30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J30" t="n">
         <v>4.7</v>
       </c>
-      <c r="I30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>1.89</v>
+        <v>2.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="R30" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="T30" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="V30" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11</v>
       </c>
-      <c r="AG30" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="AO30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="S31" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="V31" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="X31" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB31" t="n">
         <v>14</v>
       </c>
-      <c r="Y31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC31" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
         <v>16</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AI31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>120</v>
       </c>
-      <c r="AF31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>29</v>
-      </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AL31" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>1.81</v>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>1.89</v>
       </c>
       <c r="H32" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>1.83</v>
+        <v>5.1</v>
       </c>
       <c r="J32" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>2.46</v>
+        <v>1.89</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="U32" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="W32" t="n">
-        <v>1.27</v>
+        <v>2.12</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="n">
-        <v>19.5</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
-        <v>24</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AF32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="n">
         <v>38</v>
       </c>
-      <c r="AG32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>48</v>
-      </c>
       <c r="AM32" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="G33" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
         <v>3.5</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.4</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="T33" t="n">
         <v>1.81</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W33" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AA33" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="n">
         <v>9.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>29</v>
       </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>95</v>
-      </c>
       <c r="AK33" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.39</v>
+        <v>4.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H34" t="n">
-        <v>9.6</v>
+        <v>1.76</v>
       </c>
       <c r="I34" t="n">
-        <v>9.800000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J34" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S34" t="n">
         <v>2.64</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="V34" t="n">
-        <v>1.11</v>
+        <v>2.24</v>
       </c>
       <c r="W34" t="n">
-        <v>3.5</v>
+        <v>1.26</v>
       </c>
       <c r="X34" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>350</v>
+        <v>19.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AC34" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AE34" t="n">
-        <v>130</v>
+        <v>16.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AK34" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.2</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="35">
@@ -5113,118 +5113,118 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="H35" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="T35" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AA35" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG35" t="n">
         <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="AO35" t="n">
         <v>130</v>
@@ -5233,135 +5233,540 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3</v>
+      </c>
+      <c r="X36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Friendly Matches</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>2025-12-30</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>SC Penedense</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Itabaiana</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F38" t="n">
         <v>1.04</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G38" t="n">
         <v>610</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>1.04</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>870</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J38" t="n">
         <v>1.03</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K38" t="n">
         <v>950</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>1.01</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M38" t="n">
         <v>1.17</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N38" t="n">
         <v>1.34</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O38" t="n">
         <v>1.17</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P38" t="n">
         <v>1.34</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q38" t="n">
         <v>1.17</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R38" t="n">
         <v>1.18</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S38" t="n">
         <v>1.16</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T38" t="n">
         <v>1.04</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U38" t="n">
         <v>1.04</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V38" t="n">
         <v>1.01</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W38" t="n">
         <v>1.01</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X38" t="n">
         <v>990</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y38" t="n">
         <v>990</v>
       </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
         <v>990</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AC38" t="n">
         <v>990</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AD38" t="n">
         <v>990</v>
       </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG36" t="n">
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
         <v>990</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AH38" t="n">
         <v>990</v>
       </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ABC RN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Campinense</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
         <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -700,28 +700,28 @@
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
@@ -757,16 +757,16 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
         <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN2" t="n">
         <v>34</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,22 +868,22 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG3" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -895,10 +895,10 @@
         <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
         <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
         <v>160</v>
@@ -1009,40 +1009,40 @@
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL4" t="n">
         <v>170</v>
       </c>
-      <c r="AF4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>190</v>
-      </c>
       <c r="AM4" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
         <v>1.34</v>
@@ -1114,34 +1114,34 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z5" t="n">
         <v>16</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
         <v>10.5</v>
@@ -1153,7 +1153,7 @@
         <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
         <v>42</v>
@@ -1207,70 +1207,70 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.91</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.94</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
         <v>65</v>
       </c>
       <c r="AA6" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
         <v>7.8</v>
@@ -1282,37 +1282,37 @@
         <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
         <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
         <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
         <v>1.38</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>15.5</v>
@@ -1408,7 +1408,7 @@
         <v>30</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>26</v>
@@ -1432,22 +1432,22 @@
         <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.8</v>
@@ -1513,7 +1513,7 @@
         <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
         <v>3.4</v>
@@ -1522,7 +1522,7 @@
         <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
         <v>1.35</v>
@@ -1534,10 +1534,10 @@
         <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1549,28 +1549,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
         <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
@@ -1579,10 +1579,10 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="I9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
@@ -1645,7 +1645,7 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R9" t="n">
         <v>1.91</v>
@@ -1654,22 +1654,22 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
         <v>4.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>990</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AC9" t="n">
         <v>17</v>
@@ -1687,34 +1687,34 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
         <v>130</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AK9" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AL9" t="n">
         <v>240</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AO9" t="n">
         <v>3.7</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I10" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>1.5</v>
@@ -1774,13 +1774,13 @@
         <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1789,70 +1789,70 @@
         <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.8</v>
       </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -1912,19 +1912,19 @@
         <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
         <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U11" t="n">
         <v>1.83</v>
@@ -1933,13 +1933,13 @@
         <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1978,13 +1978,13 @@
         <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
         <v>600</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="J12" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.24</v>
@@ -2041,40 +2041,40 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R12" t="n">
         <v>1.81</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W12" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
@@ -2182,7 +2182,7 @@
         <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" t="n">
         <v>2.42</v>
@@ -2191,7 +2191,7 @@
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
         <v>2.06</v>
@@ -2200,10 +2200,10 @@
         <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
         <v>10</v>
@@ -2224,13 +2224,13 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2239,10 +2239,10 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
@@ -2293,10 +2293,10 @@
         <v>6</v>
       </c>
       <c r="H14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.65</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.66</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2329,10 +2329,10 @@
         <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
         <v>2.52</v>
@@ -2350,10 +2350,10 @@
         <v>9.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>9.4</v>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF14" t="n">
         <v>46</v>
@@ -2374,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
         <v>160</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2452,31 +2452,31 @@
         <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
         <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
         <v>32</v>
@@ -2485,46 +2485,46 @@
         <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
         <v>23</v>
       </c>
       <c r="AE15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
         <v>60</v>
       </c>
-      <c r="AF15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO15" t="n">
         <v>60</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
         <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.48</v>
       </c>
       <c r="V16" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
@@ -2617,25 +2617,25 @@
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2656,10 +2656,10 @@
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO16" t="n">
         <v>12</v>
@@ -2692,28 +2692,28 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J17" t="n">
         <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>6</v>
@@ -2722,7 +2722,7 @@
         <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q17" t="n">
         <v>1.49</v>
@@ -2740,10 +2740,10 @@
         <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="X17" t="n">
         <v>990</v>
@@ -2830,61 +2830,61 @@
         <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.35</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
@@ -2893,25 +2893,25 @@
         <v>220</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
         <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>160</v>
@@ -2920,19 +2920,19 @@
         <v>85</v>
       </c>
       <c r="AK18" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AL18" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -2995,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
         <v>1.39</v>
@@ -3010,19 +3010,19 @@
         <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
         <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
         <v>46</v>
@@ -3031,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
         <v>12.5</v>
@@ -3046,10 +3046,10 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
         <v>100</v>
@@ -3064,10 +3064,10 @@
         <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G20" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -3127,58 +3127,58 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
         <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
         <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>16.5</v>
@@ -3199,7 +3199,7 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,73 +3232,73 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
         <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
         <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
@@ -3316,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>55</v>
@@ -3331,10 +3331,10 @@
         <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="n">
         <v>38</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
         <v>1.94</v>
@@ -3379,7 +3379,7 @@
         <v>4.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>3.95</v>
@@ -3400,16 +3400,16 @@
         <v>2.14</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
         <v>2.22</v>
@@ -3421,7 +3421,7 @@
         <v>2.06</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>17</v>
@@ -3442,7 +3442,7 @@
         <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
         <v>12.5</v>
@@ -3451,28 +3451,28 @@
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
         <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G23" t="n">
         <v>1.43</v>
@@ -3517,7 +3517,7 @@
         <v>5.4</v>
       </c>
       <c r="K23" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -3535,19 +3535,19 @@
         <v>2.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R23" t="n">
         <v>1.76</v>
       </c>
       <c r="S23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T23" t="n">
         <v>1.71</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
         <v>1.12</v>
@@ -3559,7 +3559,7 @@
         <v>34</v>
       </c>
       <c r="Y23" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
         <v>14</v>
@@ -3637,67 +3637,67 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="G24" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="H24" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y24" t="n">
         <v>990</v>
       </c>
       <c r="Z24" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,16 +3706,16 @@
         <v>22</v>
       </c>
       <c r="AC24" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>990</v>
+        <v>180</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -3730,7 +3730,7 @@
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>15.5</v>
       </c>
       <c r="AL24" t="n">
         <v>80</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3775,7 +3775,7 @@
         <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -3787,13 +3787,13 @@
         <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
         <v>3.25</v>
@@ -3811,22 +3811,22 @@
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
         <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
@@ -3838,7 +3838,7 @@
         <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>8</v>
@@ -3850,7 +3850,7 @@
         <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G26" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H26" t="n">
         <v>2.54</v>
       </c>
       <c r="I26" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
         <v>3.8</v>
@@ -3931,40 +3931,40 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W26" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
         <v>18</v>
@@ -3973,7 +3973,7 @@
         <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.199999999999999</v>
@@ -3985,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
@@ -4012,7 +4012,7 @@
         <v>600</v>
       </c>
       <c r="AO26" t="n">
-        <v>600</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G27" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I27" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.34</v>
@@ -4066,34 +4066,34 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
         <v>2.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R27" t="n">
         <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T27" t="n">
         <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W27" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X27" t="n">
         <v>32</v>
@@ -4102,19 +4102,19 @@
         <v>44</v>
       </c>
       <c r="Z27" t="n">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE27" t="n">
         <v>420</v>
@@ -4138,13 +4138,13 @@
         <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G28" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="I28" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.24</v>
@@ -4201,28 +4201,28 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P28" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T28" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U28" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
         <v>2.68</v>
@@ -4243,7 +4243,7 @@
         <v>16.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="n">
         <v>13.5</v>
@@ -4252,16 +4252,16 @@
         <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG28" t="n">
         <v>24</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
         <v>25</v>
@@ -4279,10 +4279,10 @@
         <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="29">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I29" t="n">
         <v>14.5</v>
       </c>
       <c r="J29" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4357,13 +4357,13 @@
         <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V29" t="n">
         <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X29" t="n">
         <v>32</v>
@@ -4381,7 +4381,7 @@
         <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD29" t="n">
         <v>120</v>
@@ -4405,7 +4405,7 @@
         <v>10.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL29" t="n">
         <v>95</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G30" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
         <v>6.4</v>
@@ -4480,10 +4480,10 @@
         <v>2.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S30" t="n">
         <v>2.44</v>
@@ -4498,7 +4498,7 @@
         <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="X30" t="n">
         <v>46</v>
@@ -4528,7 +4528,7 @@
         <v>11.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G31" t="n">
         <v>2.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I31" t="n">
         <v>3.25</v>
       </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="n">
         <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -4609,13 +4609,13 @@
         <v>4.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P31" t="n">
         <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R31" t="n">
         <v>1.55</v>
@@ -4624,13 +4624,13 @@
         <v>2.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W31" t="n">
         <v>1.71</v>
@@ -4639,7 +4639,7 @@
         <v>42</v>
       </c>
       <c r="Y31" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="Z31" t="n">
         <v>170</v>
@@ -4648,10 +4648,10 @@
         <v>210</v>
       </c>
       <c r="AB31" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD31" t="n">
         <v>14.5</v>
@@ -4666,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI31" t="n">
         <v>85</v>
@@ -4687,7 +4687,7 @@
         <v>13</v>
       </c>
       <c r="AO31" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H32" t="n">
         <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>1.42</v>
@@ -4741,43 +4741,43 @@
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R32" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA32" t="n">
         <v>130</v>
@@ -4798,13 +4798,13 @@
         <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
         <v>20</v>
@@ -4816,10 +4816,10 @@
         <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
         <v>85</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H33" t="n">
         <v>3.45</v>
@@ -4864,49 +4864,49 @@
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P33" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U33" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
         <v>1.37</v>
       </c>
       <c r="W33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
         <v>13.5</v>
@@ -4915,13 +4915,13 @@
         <v>27</v>
       </c>
       <c r="AA33" t="n">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>15.5</v>
@@ -4939,25 +4939,25 @@
         <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL33" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G34" t="n">
         <v>4.9</v>
@@ -4996,13 +4996,13 @@
         <v>1.76</v>
       </c>
       <c r="I34" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
         <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.32</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -5023,76 +5023,76 @@
         <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S34" t="n">
         <v>2.64</v>
       </c>
       <c r="T34" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U34" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="n">
         <v>12</v>
       </c>
-      <c r="Z34" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE34" t="n">
         <v>16.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG34" t="n">
         <v>18</v>
       </c>
       <c r="AH34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
         <v>55</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM34" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="n">
         <v>600</v>
       </c>
       <c r="AO34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G35" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I35" t="n">
         <v>9.6</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="J35" t="n">
         <v>5.6</v>
@@ -5140,31 +5140,31 @@
         <v>5.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S35" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="T35" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U35" t="n">
         <v>2.04</v>
@@ -5173,10 +5173,10 @@
         <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
         <v>34</v>
@@ -5185,10 +5185,10 @@
         <v>85</v>
       </c>
       <c r="AA35" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -5200,13 +5200,13 @@
         <v>130</v>
       </c>
       <c r="AF35" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI35" t="n">
         <v>110</v>
@@ -5215,7 +5215,7 @@
         <v>11.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL35" t="n">
         <v>30</v>
@@ -5224,10 +5224,10 @@
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I36" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.36</v>
@@ -5281,16 +5281,16 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R36" t="n">
         <v>1.51</v>
@@ -5299,34 +5299,34 @@
         <v>2.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
         <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X36" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>26</v>
       </c>
       <c r="Z36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA36" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
         <v>27</v>
@@ -5335,13 +5335,13 @@
         <v>110</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG36" t="n">
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
         <v>95</v>
@@ -5350,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="AK36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL36" t="n">
         <v>38</v>
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="G37" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L37" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S37" t="n">
         <v>3.9</v>
       </c>
       <c r="T37" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ37" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38">
@@ -5527,64 +5527,64 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="G38" t="n">
-        <v>610</v>
+        <v>4.8</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="I38" t="n">
-        <v>870</v>
+        <v>2.42</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>2.92</v>
       </c>
       <c r="K38" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>1.34</v>
+        <v>2.54</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="P38" t="n">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.17</v>
+        <v>2.3</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.16</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V38" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="X38" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5596,7 +5596,7 @@
         <v>990</v>
       </c>
       <c r="AC38" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AD38" t="n">
         <v>990</v>
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.02</v>
+        <v>1.66</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
-        <v>1.02</v>
+        <v>4.8</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5728,10 +5728,10 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="n">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O2" t="n">
         <v>2.2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.06</v>
       </c>
-      <c r="N2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.46</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>16</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>1.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF2" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>28</v>
       </c>
-      <c r="AG2" t="n">
-        <v>16</v>
-      </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="AM2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="AO2" t="n">
-        <v>13.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="H3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,46 +868,46 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ3" t="n">
-        <v>180</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="P4" t="n">
         <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="U4" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AE4" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK4" t="n">
         <v>34</v>
       </c>
-      <c r="AI4" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>28</v>
-      </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,55 +1072,55 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>1.86</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W5" t="n">
         <v>1.25</v>
@@ -1132,58 +1132,58 @@
         <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>10.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI5" t="n">
         <v>46</v>
       </c>
-      <c r="AF5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>160</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>UCAM Murcia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Real Murcia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>7.8</v>
+        <v>2.32</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>2.78</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AO6" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>1.74</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>2.66</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="AB7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
         <v>170</v>
       </c>
-      <c r="AK7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>200</v>
-      </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>3.85</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.38</v>
       </c>
-      <c r="S8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.76</v>
-      </c>
       <c r="X8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB8" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF8" t="n">
         <v>26</v>
       </c>
-      <c r="Z8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>28</v>
-      </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
         <v>10</v>
       </c>
-      <c r="G9" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="AC9" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X9" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK9" t="n">
         <v>60</v>
       </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>420</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>160</v>
-      </c>
       <c r="AL9" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>9.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>1.33</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>8.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>3.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="S10" t="n">
-        <v>4.5</v>
+        <v>1.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>1.56</v>
+        <v>3.85</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC10" t="n">
         <v>17</v>
       </c>
-      <c r="AA10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AK10" t="n">
         <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
-        <v>38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Coruripe</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>2.96</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
         <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD11" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM11" t="n">
         <v>150</v>
       </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2035,34 +2035,34 @@
         <v>7.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
         <v>1.81</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
         <v>1.06</v>
@@ -2074,7 +2074,7 @@
         <v>80</v>
       </c>
       <c r="Y12" t="n">
-        <v>990</v>
+        <v>260</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>25</v>
@@ -2095,19 +2095,19 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK12" t="n">
         <v>14</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Coruripe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="U13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
         <v>85</v>
       </c>
-      <c r="AB13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL13" t="n">
         <v>55</v>
       </c>
-      <c r="AF13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN13" t="n">
         <v>26</v>
       </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>24</v>
-      </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.9</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>1.64</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.65</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
-        <v>2.52</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>1.2</v>
+        <v>2.72</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.4</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>46</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>160</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>80</v>
+        <v>13.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>90</v>
+        <v>5.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.800000000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.54</v>
+        <v>3.75</v>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.34</v>
+        <v>2.74</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF15" t="n">
         <v>28</v>
       </c>
-      <c r="Y15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.6</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.12</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.32</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.88</v>
+        <v>2.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.42</v>
+        <v>2.18</v>
       </c>
       <c r="G17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.47</v>
       </c>
-      <c r="H17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="P17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB17" t="n">
         <v>7.8</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X17" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK17" t="n">
         <v>26</v>
       </c>
-      <c r="AC17" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.1</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>1.41</v>
       </c>
       <c r="G18" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="H18" t="n">
-        <v>2.96</v>
+        <v>7.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>3.2</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="Z18" t="n">
+        <v>230</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
         <v>55</v>
       </c>
-      <c r="AA18" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>130</v>
-      </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
         <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
         <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>28</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.63</v>
+        <v>2.68</v>
       </c>
       <c r="G20" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>6.6</v>
+        <v>2.94</v>
       </c>
       <c r="J20" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="W20" t="n">
-        <v>2.56</v>
+        <v>1.57</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
         <v>85</v>
       </c>
-      <c r="AF20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>580</v>
-      </c>
       <c r="AN20" t="n">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.86</v>
+        <v>1.67</v>
       </c>
       <c r="G21" t="n">
-        <v>2.96</v>
+        <v>1.69</v>
       </c>
       <c r="H21" t="n">
-        <v>2.82</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.15</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.51</v>
+        <v>2.44</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="Z21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>17</v>
       </c>
-      <c r="AA21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>50</v>
-      </c>
       <c r="AK21" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>38</v>
+        <v>9.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>2.92</v>
       </c>
       <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.94</v>
       </c>
-      <c r="H22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.76</v>
-      </c>
       <c r="U22" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI22" t="n">
         <v>55</v>
       </c>
-      <c r="AF22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>250</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L23" t="n">
         <v>1.39</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.25</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.86</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.76</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.71</v>
       </c>
       <c r="U23" t="n">
         <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="W23" t="n">
-        <v>3.3</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="n">
         <v>34</v>
       </c>
-      <c r="Y23" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL23" t="n">
         <v>32</v>
       </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>28</v>
-      </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3628,73 +3628,73 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="G24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1.47</v>
       </c>
-      <c r="H24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.58</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="T24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="X24" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3703,46 +3703,46 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI24" t="n">
         <v>95</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.44</v>
+        <v>1.45</v>
       </c>
       <c r="G25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P25" t="n">
         <v>2.58</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.77</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2.46</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U25" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>1.63</v>
+        <v>3.05</v>
       </c>
       <c r="X25" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>180</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>36</v>
-      </c>
       <c r="AK25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>28</v>
+        <v>5.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="H26" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S26" t="n">
         <v>4</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="W26" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
         <v>95</v>
       </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.56</v>
+        <v>2.72</v>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>2.96</v>
       </c>
       <c r="H27" t="n">
-        <v>6.4</v>
+        <v>2.54</v>
       </c>
       <c r="I27" t="n">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.22</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="W27" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="X27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK27" t="n">
         <v>32</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.6</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.7</v>
+        <v>1.56</v>
       </c>
       <c r="G28" t="n">
-        <v>6.6</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
-        <v>1.51</v>
+        <v>6.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.58</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K28" t="n">
         <v>5</v>
       </c>
-      <c r="K28" t="n">
-        <v>5.7</v>
-      </c>
       <c r="L28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.24</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.13</v>
-      </c>
       <c r="P28" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.06</v>
       </c>
-      <c r="T28" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.52</v>
-      </c>
       <c r="V28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W28" t="n">
         <v>2.68</v>
       </c>
-      <c r="W28" t="n">
-        <v>1.19</v>
-      </c>
       <c r="X28" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y28" t="n">
         <v>38</v>
       </c>
-      <c r="Y28" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z28" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="AA28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AE28" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>15</v>
       </c>
-      <c r="AF28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK28" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.25</v>
+        <v>5.8</v>
       </c>
       <c r="G29" t="n">
-        <v>1.29</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
-        <v>12.5</v>
+        <v>1.49</v>
       </c>
       <c r="I29" t="n">
-        <v>14.5</v>
+        <v>1.54</v>
       </c>
       <c r="J29" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="K29" t="n">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="O29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.17</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W29" t="n">
-        <v>4.2</v>
-      </c>
       <c r="X29" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y29" t="n">
-        <v>120</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>120</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.800000000000001</v>
+        <v>60</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>190</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.5</v>
+        <v>48</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="30">
@@ -4438,118 +4438,118 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="H30" t="n">
-        <v>6.4</v>
+        <v>13.5</v>
       </c>
       <c r="I30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K30" t="n">
         <v>7.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W30" t="n">
         <v>4.7</v>
       </c>
-      <c r="K30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.88</v>
-      </c>
       <c r="X30" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Z30" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
       <c r="H31" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.25</v>
+        <v>7.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S31" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="T31" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="U31" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>1.71</v>
+        <v>2.84</v>
       </c>
       <c r="X31" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="Z31" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
         <v>190</v>
       </c>
-      <c r="AF31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>120</v>
-      </c>
       <c r="AK31" t="n">
-        <v>50</v>
+        <v>15.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AO31" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="G32" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="H32" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
         <v>5</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.7</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="U32" t="n">
-        <v>1.99</v>
+        <v>2.46</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE32" t="n">
         <v>36</v>
       </c>
-      <c r="AA32" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>70</v>
-      </c>
       <c r="AF32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG32" t="n">
         <v>11</v>
       </c>
-      <c r="AG32" t="n">
-        <v>10</v>
-      </c>
       <c r="AH32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK32" t="n">
         <v>21</v>
       </c>
-      <c r="AI32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>20</v>
-      </c>
       <c r="AL32" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO32" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="G33" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
         <v>3.8</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.32</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
         <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="U33" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK33" t="n">
         <v>19</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>24</v>
       </c>
       <c r="AL33" t="n">
         <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>2.16</v>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>1.76</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.32</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P34" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="R34" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="S34" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="T34" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="W34" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="X34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK34" t="n">
         <v>24</v>
       </c>
-      <c r="Y34" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AL34" t="n">
         <v>38</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AM34" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN34" t="n">
         <v>18</v>
       </c>
-      <c r="AH34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>600</v>
-      </c>
       <c r="AO34" t="n">
-        <v>8.6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.39</v>
+        <v>4.7</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
-        <v>9.4</v>
+        <v>1.76</v>
       </c>
       <c r="I35" t="n">
-        <v>9.6</v>
+        <v>1.78</v>
       </c>
       <c r="J35" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="K35" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S35" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="V35" t="n">
-        <v>1.11</v>
+        <v>2.28</v>
       </c>
       <c r="W35" t="n">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="X35" t="n">
         <v>24</v>
       </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>360</v>
+        <v>18.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE35" t="n">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>110</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK35" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AL35" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.4</v>
+        <v>46</v>
       </c>
       <c r="AO35" t="n">
-        <v>140</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="36">
@@ -5248,118 +5248,118 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="G36" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="J36" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K36" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S36" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V36" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AA36" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE36" t="n">
+      <c r="AK36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM36" t="n">
         <v>110</v>
       </c>
-      <c r="AF36" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>120</v>
-      </c>
       <c r="AN36" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="AO36" t="n">
         <v>130</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.18</v>
+        <v>1.46</v>
       </c>
       <c r="G37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P37" t="n">
         <v>2.24</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.81</v>
-      </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="R37" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="T37" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="U37" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="X37" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y37" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK37" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>65</v>
-      </c>
       <c r="AL37" t="n">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>21</v>
+        <v>6.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,126 +5513,126 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SC Penedense</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Itabaiana</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.65</v>
+        <v>2.24</v>
       </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="I38" t="n">
-        <v>2.42</v>
+        <v>3.95</v>
       </c>
       <c r="J38" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>2.54</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S38" t="n">
         <v>4.1</v>
       </c>
       <c r="T38" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.96</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.76</v>
       </c>
-      <c r="V38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.26</v>
-      </c>
       <c r="X38" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="n">
-        <v>990</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -5648,125 +5648,260 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SC Penedense</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Itabaiana</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>ABC RN</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Campinense</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F40" t="n">
         <v>1.66</v>
       </c>
-      <c r="G39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="G40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
         <v>7.4</v>
       </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.5</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>1.42</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M40" t="n">
         <v>1.09</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N40" t="n">
         <v>2.68</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O40" t="n">
         <v>1.39</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P40" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q39" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R39" t="n">
+      <c r="Q40" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.22</v>
       </c>
-      <c r="S39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="S40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.71</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V40" t="n">
         <v>1.16</v>
       </c>
-      <c r="W39" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
+      <c r="W40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
         <v>46</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AC40" t="n">
         <v>19</v>
       </c>
-      <c r="AD39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
         <v>85</v>
       </c>
-      <c r="AO39" t="n">
+      <c r="AO40" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>1.93</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S2" t="n">
-        <v>16</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.48</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>75</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN2" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>UCAM Murcia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Real Murcia</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>1.21</v>
+        <v>1.92</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>8.800000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="S3" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>3.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.2</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>530</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.16</v>
       </c>
-      <c r="S4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W4" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="AJ4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK4" t="n">
         <v>20</v>
       </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>1.86</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
         <v>12</v>
       </c>
-      <c r="AA5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO5" t="n">
         <v>18</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UCAM Murcia</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Real Murcia</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.4</v>
       </c>
-      <c r="G6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AI6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
         <v>27</v>
       </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AL6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
         <v>21</v>
       </c>
-      <c r="AI6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>48</v>
-      </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>1.27</v>
       </c>
       <c r="I7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J7" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.3</v>
-      </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>3.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>1.37</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>1.92</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>4.4</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66</v>
+        <v>1.08</v>
       </c>
       <c r="X7" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y7" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>220</v>
+        <v>11.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.8</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN7" t="n">
         <v>110</v>
       </c>
-      <c r="AF7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AO7" t="n">
-        <v>190</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.22</v>
+        <v>2.84</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
         <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>18.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Coruripe</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.41</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.32</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>29</v>
       </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AK9" t="n">
         <v>28</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>60</v>
-      </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>9.6</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>1.33</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>1.35</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>3.85</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>4.7</v>
       </c>
       <c r="X10" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>120</v>
       </c>
       <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
         <v>12</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
         <v>14</v>
       </c>
-      <c r="AB10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AL10" t="n">
         <v>130</v>
       </c>
-      <c r="AG10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>240</v>
-      </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>70</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>1.63</v>
       </c>
       <c r="I12" t="n">
-        <v>16.5</v>
+        <v>1.64</v>
       </c>
       <c r="J12" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.06</v>
+        <v>2.56</v>
       </c>
       <c r="W12" t="n">
-        <v>4.7</v>
+        <v>1.18</v>
       </c>
       <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL12" t="n">
         <v>80</v>
       </c>
-      <c r="Y12" t="n">
-        <v>260</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>85</v>
-      </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Coruripe</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.98</v>
+        <v>3.7</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>2.12</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.68</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK13" t="n">
         <v>34</v>
       </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AL13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN13" t="n">
         <v>29</v>
       </c>
-      <c r="AK13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>26</v>
-      </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -2305,13 +2305,13 @@
         <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
@@ -2320,16 +2320,16 @@
         <v>2.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
         <v>2.48</v>
@@ -2344,13 +2344,13 @@
         <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
         <v>12.5</v>
@@ -2368,7 +2368,7 @@
         <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
@@ -2389,7 +2389,7 @@
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO14" t="n">
         <v>60</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
       </c>
-      <c r="Z15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.9</v>
+        <v>2.68</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>2.74</v>
       </c>
       <c r="H16" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.38</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.43</v>
-      </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AF16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>21</v>
-      </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.800000000000001</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J17" t="n">
         <v>4.1</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
         <v>10</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>24</v>
-      </c>
       <c r="AO17" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.41</v>
+        <v>2.84</v>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>2.86</v>
       </c>
       <c r="H18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC18" t="n">
         <v>7.2</v>
       </c>
-      <c r="I18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AD18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM18" t="n">
         <v>120</v>
       </c>
-      <c r="Z18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
         <v>55</v>
       </c>
-      <c r="AA19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>75</v>
-      </c>
       <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH19" t="n">
         <v>17</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN19" t="n">
         <v>12</v>
       </c>
-      <c r="AH19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>22</v>
-      </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>1.32</v>
       </c>
       <c r="G20" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.94</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>6.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>3.45</v>
+        <v>2.06</v>
       </c>
       <c r="T20" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.51</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>1.57</v>
+        <v>3.95</v>
       </c>
       <c r="X20" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB20" t="n">
         <v>14</v>
       </c>
-      <c r="Y20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>12</v>
       </c>
-      <c r="AH20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>40</v>
-      </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>3.85</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="G21" t="n">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K21" t="n">
         <v>6</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
         <v>46</v>
       </c>
-      <c r="AA21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>20</v>
-      </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.92</v>
+        <v>1.43</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>2.78</v>
+        <v>7.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.86</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>2.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>1.59</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
         <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="X22" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>180</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>11</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>5.9</v>
       </c>
       <c r="AO22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="G23" t="n">
-        <v>1.94</v>
+        <v>1.28</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>13.5</v>
       </c>
       <c r="I23" t="n">
+        <v>19</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W23" t="n">
         <v>4.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>850</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AI23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.35</v>
+        <v>2.74</v>
       </c>
       <c r="G24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.4</v>
       </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.78</v>
-      </c>
       <c r="S24" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="U24" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.11</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB24" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
         <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.3</v>
+        <v>600</v>
       </c>
       <c r="AO24" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="H25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I25" t="n">
         <v>7.4</v>
       </c>
-      <c r="I25" t="n">
-        <v>8.4</v>
-      </c>
       <c r="J25" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="T25" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
         <v>2.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W25" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="X25" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE25" t="n">
         <v>95</v>
       </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>180</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.48</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.62</v>
+        <v>6.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>1.54</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="L26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.46</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.14</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>2.18</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>2.84</v>
       </c>
       <c r="W26" t="n">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>65</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AH26" t="n">
         <v>19.5</v>
       </c>
       <c r="AI26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
         <v>95</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>36</v>
-      </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AO26" t="n">
-        <v>80</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="G27" t="n">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T27" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12</v>
       </c>
-      <c r="AE27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
         <v>95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4168,118 +4168,118 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="G28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.57</v>
       </c>
-      <c r="H28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
-        <v>2.86</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="U28" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W28" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="X28" t="n">
         <v>28</v>
       </c>
       <c r="Y28" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="Z28" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
         <v>42</v>
       </c>
       <c r="AE28" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK28" t="n">
         <v>15</v>
       </c>
-      <c r="AK28" t="n">
-        <v>16</v>
-      </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.8</v>
+        <v>1.94</v>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>2.02</v>
       </c>
       <c r="H29" t="n">
-        <v>1.49</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1.54</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="U29" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="V29" t="n">
-        <v>2.84</v>
+        <v>1.32</v>
       </c>
       <c r="W29" t="n">
-        <v>1.17</v>
+        <v>1.98</v>
       </c>
       <c r="X29" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Z29" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD29" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF29" t="n">
         <v>15</v>
       </c>
-      <c r="AF29" t="n">
-        <v>60</v>
-      </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK29" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>65</v>
-      </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AM29" t="n">
         <v>65</v>
       </c>
       <c r="AN29" t="n">
-        <v>48</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.26</v>
+        <v>1.86</v>
       </c>
       <c r="G30" t="n">
-        <v>1.27</v>
+        <v>1.87</v>
       </c>
       <c r="H30" t="n">
-        <v>13.5</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>7.2</v>
+        <v>3.85</v>
       </c>
       <c r="K30" t="n">
-        <v>7.6</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="R30" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="T30" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>4.7</v>
+        <v>2.14</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>2.44</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
         <v>1.73</v>
       </c>
       <c r="U31" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>2.84</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG31" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.06</v>
+        <v>4.8</v>
       </c>
       <c r="G32" t="n">
-        <v>2.18</v>
+        <v>4.9</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>1.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>1.76</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="S32" t="n">
         <v>2.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="V32" t="n">
-        <v>1.37</v>
+        <v>2.3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="X32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB32" t="n">
         <v>22</v>
       </c>
-      <c r="Y32" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC32" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE32" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH32" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AJ32" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AL32" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
         <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AO32" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.84</v>
+        <v>1.4</v>
       </c>
       <c r="G33" t="n">
-        <v>1.86</v>
+        <v>1.41</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="T33" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="U33" t="n">
         <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="W33" t="n">
-        <v>2.16</v>
+        <v>3.4</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Z33" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE33" t="n">
         <v>120</v>
       </c>
-      <c r="AB33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>60</v>
-      </c>
       <c r="AF33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AL33" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>12</v>
+        <v>5.3</v>
       </c>
       <c r="AO33" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="T34" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>1.83</v>
+        <v>3.15</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
         <v>26</v>
       </c>
-      <c r="AA34" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AI34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK34" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>24</v>
       </c>
       <c r="AL34" t="n">
         <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>18</v>
+        <v>6.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>2.34</v>
       </c>
       <c r="H35" t="n">
-        <v>1.76</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.33</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.28</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG35" t="n">
         <v>12</v>
       </c>
-      <c r="AA35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>18</v>
-      </c>
       <c r="AH35" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AJ35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO35" t="n">
         <v>110</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>8.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>SC Penedense</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Itabaiana</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.39</v>
+        <v>4.1</v>
       </c>
       <c r="G36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.4</v>
       </c>
-      <c r="H36" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.22</v>
       </c>
-      <c r="P36" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S36" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U36" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>1.11</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>3.45</v>
+        <v>1.22</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,530 +5378,125 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>ABC RN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Campinense</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.46</v>
+        <v>1.85</v>
       </c>
       <c r="G37" t="n">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="J37" t="n">
-        <v>5.2</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>4.6</v>
+        <v>2.72</v>
       </c>
       <c r="O37" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q37" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.79</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>3.15</v>
+        <v>1.84</v>
       </c>
       <c r="X37" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.6</v>
+        <v>46</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI37" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.8</v>
+        <v>65</v>
       </c>
       <c r="AO37" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X38" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>SC Penedense</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Itabaiana</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ABC RN</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Campinense</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO40" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2.36</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>2.48</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>7.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>1.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>2.56</v>
       </c>
       <c r="S2" t="n">
-        <v>4.8</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,52 +733,52 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="AM2" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AN2" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UCAM Murcia</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Real Murcia</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8.800000000000001</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>2.68</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.24</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF3" t="n">
         <v>19</v>
       </c>
-      <c r="AE3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17</v>
-      </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>10.5</v>
       </c>
       <c r="H4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K4" t="n">
         <v>6.8</v>
       </c>
-      <c r="I4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>3.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>3.85</v>
       </c>
       <c r="W4" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>190</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK4" t="n">
         <v>260</v>
       </c>
-      <c r="AB4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>20</v>
-      </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>210</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.3</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>2.66</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T5" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Coruripe</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>2.68</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
         <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL6" t="n">
         <v>55</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>95</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>1.23</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
-        <v>1.27</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>1.29</v>
+        <v>17.5</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>4.4</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>5.3</v>
       </c>
       <c r="X7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>260</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>140</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>110</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>2.14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.87</v>
       </c>
-      <c r="V8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.49</v>
-      </c>
       <c r="X8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Coruripe</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>6.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>1.61</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>1.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>2.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="n">
         <v>85</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>55</v>
-      </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>5.9</v>
       </c>
       <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="X10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.42</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>2.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO11" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>1.42</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>1.63</v>
+        <v>7.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.64</v>
+        <v>8.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="S12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W12" t="n">
         <v>3.25</v>
       </c>
-      <c r="T12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.18</v>
-      </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.199999999999999</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>4.9</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.800000000000001</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.7</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.62</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.36</v>
-      </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
         <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
         <v>18</v>
       </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.58</v>
       </c>
-      <c r="H14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.72</v>
-      </c>
       <c r="X14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO14" t="n">
         <v>28</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>1.63</v>
       </c>
       <c r="H15" t="n">
-        <v>2.96</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>2.58</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>46</v>
+        <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK16" t="n">
         <v>44</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
         <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.84</v>
+        <v>1.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.86</v>
+        <v>1.34</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>7.2</v>
       </c>
       <c r="O18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.42</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.76</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.92</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="W18" t="n">
-        <v>1.53</v>
+        <v>3.95</v>
       </c>
       <c r="X18" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
         <v>13</v>
       </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>44</v>
-      </c>
       <c r="AL18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO18" t="n">
         <v>130</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>1.43</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.46</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W19" t="n">
         <v>3.15</v>
       </c>
-      <c r="T19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L20" t="n">
         <v>1.34</v>
       </c>
-      <c r="H20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.23</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="n">
         <v>7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="X20" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.85</v>
       </c>
       <c r="AO20" t="n">
         <v>120</v>
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.41</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2</v>
+        <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>8.6</v>
+        <v>2.56</v>
       </c>
       <c r="J21" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
         <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>46</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AK21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="n">
         <v>26</v>
       </c>
-      <c r="AL21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5</v>
-      </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.43</v>
+        <v>5.9</v>
       </c>
       <c r="G22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.48</v>
       </c>
-      <c r="H22" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>1.53</v>
       </c>
       <c r="J22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>2.88</v>
       </c>
       <c r="W22" t="n">
-        <v>3.05</v>
+        <v>1.17</v>
       </c>
       <c r="X22" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>65</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AL22" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.9</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3505,109 +3505,109 @@
         <v>1.25</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="J23" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="T23" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="V23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W23" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA23" t="n">
-        <v>850</v>
+        <v>740</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE23" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AK23" t="n">
         <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.28</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S24" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>12</v>
       </c>
-      <c r="AE24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="G25" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="S25" t="n">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V25" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W25" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AA25" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK25" t="n">
         <v>15</v>
       </c>
-      <c r="AK25" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>1.99</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.54</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.9</v>
+        <v>2.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="R26" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="T26" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U26" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V26" t="n">
-        <v>2.84</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB26" t="n">
         <v>13</v>
       </c>
-      <c r="AA26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>34</v>
-      </c>
       <c r="AC26" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG26" t="n">
         <v>11</v>
       </c>
-      <c r="AE26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF26" t="n">
+      <c r="AH26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM26" t="n">
         <v>65</v>
       </c>
-      <c r="AG26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>580</v>
-      </c>
       <c r="AN26" t="n">
-        <v>70</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="O27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.37</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.28</v>
-      </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="T27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U27" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>2.14</v>
       </c>
       <c r="X27" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF27" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AG27" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.49</v>
+        <v>2.16</v>
       </c>
       <c r="G28" t="n">
-        <v>1.51</v>
+        <v>2.26</v>
       </c>
       <c r="H28" t="n">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="T28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V28" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>2.96</v>
+        <v>1.79</v>
       </c>
       <c r="X28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>28</v>
       </c>
-      <c r="Y28" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH28" t="n">
+      <c r="AK28" t="n">
         <v>23</v>
       </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15</v>
-      </c>
       <c r="AL28" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.6</v>
+        <v>16.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.94</v>
+        <v>4.8</v>
       </c>
       <c r="G29" t="n">
-        <v>2.02</v>
+        <v>4.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>1.74</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>1.76</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.6</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U29" t="n">
         <v>2.44</v>
       </c>
       <c r="V29" t="n">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="W29" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>18</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="AL29" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
         <v>65</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="G30" t="n">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="H30" t="n">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="R30" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="S30" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="W30" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="X30" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE30" t="n">
         <v>120</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AF30" t="n">
         <v>9</v>
       </c>
-      <c r="AC30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF30" t="n">
+      <c r="AG30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>20</v>
-      </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>5.4</v>
       </c>
       <c r="AO30" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>1.48</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>7.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U31" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="V31" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="Z31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH31" t="n">
         <v>26</v>
       </c>
-      <c r="AA31" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI31" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>6.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S32" t="n">
         <v>4.9</v>
       </c>
-      <c r="H32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.6</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
-        <v>2.34</v>
+        <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>2.3</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="X32" t="n">
-        <v>25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG32" t="n">
         <v>12</v>
       </c>
-      <c r="Z32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB32" t="n">
+      <c r="AH32" t="n">
         <v>22</v>
       </c>
-      <c r="AC32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>17</v>
-      </c>
       <c r="AI32" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
         <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="AO32" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>SC Penedense</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Itabaiana</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.4</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.22</v>
       </c>
-      <c r="P33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S33" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="T33" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>1.12</v>
+        <v>1.83</v>
       </c>
       <c r="W33" t="n">
-        <v>3.4</v>
+        <v>1.23</v>
       </c>
       <c r="X33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD33" t="n">
         <v>23</v>
       </c>
-      <c r="Y33" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>32</v>
-      </c>
       <c r="AE33" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH33" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI33" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,530 +4973,125 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>ABC RN</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Campinense</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>1.46</v>
+        <v>2.46</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>3.65</v>
       </c>
       <c r="I34" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>2.84</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.38</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.27</v>
       </c>
-      <c r="P34" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W34" t="n">
-        <v>3.15</v>
+        <v>1.68</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.6</v>
+        <v>46</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>6.6</v>
+        <v>85</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X35" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>SC Penedense</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Itabaiana</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X36" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ABC RN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Campinense</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X37" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO37" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -715,70 +715,70 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Coruripe</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>7.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>1.89</v>
       </c>
       <c r="I3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.35</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>8.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="W3" t="n">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>4.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
         <v>60</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AL3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AO3" t="n">
         <v>980</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>1.97</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>1.33</v>
+        <v>18.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.35</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S4" t="n">
         <v>6.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>27</v>
+        <v>2.28</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>490</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AJ4" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.56</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.56</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.21</v>
       </c>
-      <c r="S5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.56</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>2.52</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="n">
         <v>15</v>
       </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
       <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM5" t="n">
         <v>75</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>200</v>
-      </c>
       <c r="AN5" t="n">
-        <v>80</v>
+        <v>6.2</v>
       </c>
       <c r="AO5" t="n">
         <v>44</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Coruripe</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.7</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.98</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.44</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.82</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>27</v>
       </c>
       <c r="AB6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC6" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM6" t="n">
         <v>85</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.23</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17.5</v>
       </c>
       <c r="J7" t="n">
         <v>7.2</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.98</v>
+        <v>3.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.51</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.06</v>
       </c>
-      <c r="W7" t="n">
-        <v>5.3</v>
-      </c>
       <c r="X7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>540</v>
       </c>
       <c r="AD7" t="n">
-        <v>120</v>
+        <v>9.6</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>790</v>
       </c>
       <c r="AH7" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>160</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R8" t="n">
         <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
         <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
@@ -1537,58 +1537,58 @@
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
         <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>26</v>
       </c>
       <c r="AK8" t="n">
         <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.2</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>1.61</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>1.62</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>34</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>180</v>
-      </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.800000000000001</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.59</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>2.84</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.34</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>30</v>
       </c>
-      <c r="Z10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>16</v>
-      </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.14</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.42</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.87</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>2.68</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
       </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>65</v>
-      </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.42</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>7.8</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>8.6</v>
+        <v>2.76</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>2.82</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.48</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>2.22</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>3.25</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>30</v>
+        <v>9.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.9</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
-        <v>320</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.44</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.44</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="n">
         <v>12</v>
       </c>
-      <c r="AH13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>24</v>
-      </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>1.31</v>
       </c>
       <c r="G14" t="n">
-        <v>2.72</v>
+        <v>1.32</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>2.94</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.89</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>4.1</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12</v>
       </c>
-      <c r="Z14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL14" t="n">
         <v>29</v>
       </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="G15" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
         <v>6.4</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Z15" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AA15" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE15" t="n">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>8.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W16" t="n">
         <v>3.25</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.48</v>
-      </c>
       <c r="X16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG16" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>55</v>
-      </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>5.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.99</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>2.62</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="W17" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL17" t="n">
         <v>55</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>32</v>
       </c>
       <c r="AM17" t="n">
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="G18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L18" t="n">
         <v>1.34</v>
       </c>
-      <c r="H18" t="n">
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="X18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC18" t="n">
         <v>11</v>
       </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="X18" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AD18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
         <v>120</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>110</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.43</v>
+        <v>5.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.46</v>
+        <v>6.2</v>
       </c>
       <c r="H19" t="n">
-        <v>7.8</v>
+        <v>1.51</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>1.53</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="O19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.19</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.15</v>
-      </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12.5</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.8</v>
+        <v>42</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="H20" t="n">
+        <v>14</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17</v>
+      </c>
+      <c r="J20" t="n">
         <v>7</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>7.6</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.24</v>
+        <v>2.92</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="S20" t="n">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.89</v>
       </c>
-      <c r="U20" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="W20" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="Z20" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AA20" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AE20" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="n">
         <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="AO20" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -3223,118 +3223,118 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.39</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.28</v>
-      </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12</v>
       </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
         <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AO21" t="n">
         <v>42</v>
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.8</v>
       </c>
-      <c r="H22" t="n">
-        <v>1.48</v>
-      </c>
       <c r="I22" t="n">
-        <v>1.53</v>
+        <v>7.2</v>
       </c>
       <c r="J22" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K22" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="S22" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>2.88</v>
+        <v>1.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.17</v>
+        <v>2.92</v>
       </c>
       <c r="X22" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AA22" t="n">
-        <v>16</v>
+        <v>460</v>
       </c>
       <c r="AB22" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF22" t="n">
         <v>11</v>
       </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>65</v>
-      </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>9.6</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>85</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>1.27</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB23" t="n">
         <v>13</v>
       </c>
-      <c r="I23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X23" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>740</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>12</v>
-      </c>
       <c r="AC23" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO23" t="n">
         <v>32</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>1.86</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="K24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.5</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W24" t="n">
         <v>2.16</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AG24" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN24" t="n">
         <v>12</v>
       </c>
-      <c r="AH24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>29</v>
-      </c>
       <c r="AO24" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.49</v>
+        <v>2.04</v>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U25" t="n">
         <v>2.16</v>
       </c>
       <c r="V25" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="X25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z25" t="n">
         <v>28</v>
       </c>
-      <c r="Y25" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>160</v>
-      </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN25" t="n">
         <v>15</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AO25" t="n">
         <v>46</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.99</v>
+        <v>5.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>1.68</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="U26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.42</v>
       </c>
-      <c r="V26" t="n">
-        <v>1.34</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.96</v>
+        <v>1.23</v>
       </c>
       <c r="X26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB26" t="n">
         <v>22</v>
       </c>
-      <c r="Y26" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
       <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD26" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF26" t="n">
         <v>40</v>
       </c>
-      <c r="AF26" t="n">
-        <v>15</v>
-      </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.800000000000001</v>
+        <v>60</v>
       </c>
       <c r="AO26" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="G27" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>3.85</v>
+        <v>5.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>2.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="T27" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U27" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="W27" t="n">
-        <v>2.14</v>
+        <v>3.4</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="G28" t="n">
-        <v>2.26</v>
+        <v>1.43</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>8.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T28" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.75</v>
-      </c>
       <c r="U28" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>1.79</v>
+        <v>3.3</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>11</v>
       </c>
-      <c r="AH28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>28</v>
-      </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.8</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
-        <v>4.9</v>
+        <v>2.44</v>
       </c>
       <c r="H29" t="n">
-        <v>1.74</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.76</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="P29" t="n">
-        <v>2.52</v>
+        <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.64</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="W29" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
       </c>
       <c r="AM29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO29" t="n">
         <v>65</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>7.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>SC Penedense</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Itabaiana</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.4</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>1.61</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="R30" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="V30" t="n">
-        <v>1.12</v>
+        <v>1.79</v>
       </c>
       <c r="W30" t="n">
-        <v>3.45</v>
+        <v>1.24</v>
       </c>
       <c r="X30" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="Z30" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,530 +4568,125 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>ABC RN</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Campinense</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>1.49</v>
+        <v>2.56</v>
       </c>
       <c r="H31" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>5.1</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>2.22</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>3.05</v>
+        <v>1.64</v>
       </c>
       <c r="X31" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
         <v>65</v>
       </c>
-      <c r="AA31" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AO31" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>SC Penedense</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Itabaiana</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ABC RN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Campinense</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X34" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO34" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Coruripe</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>7.4</v>
+        <v>1.03</v>
       </c>
       <c r="H3" t="n">
-        <v>1.89</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>34</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="S3" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>34</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>1.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>850</v>
       </c>
       <c r="AI3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>60</v>
+        <v>850</v>
       </c>
       <c r="AL3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="H4" t="n">
-        <v>18.5</v>
+        <v>310</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.16</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,28 +967,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>1.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>100</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>100</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,40 +1006,40 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>1.26</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,78 +1058,78 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.68</v>
+        <v>1.03</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>140</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>7.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="R5" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.52</v>
+        <v>26</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,25 +1138,25 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>1.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>850</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>850</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,25 +1165,25 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>1.07</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>180</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>42</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>4.1</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>50</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>50</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>1.27</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>850</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,94 +1366,94 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>7.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>100</v>
       </c>
       <c r="W8" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>1.15</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>850</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>850</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>1.03</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>1.07</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S9" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.85</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>1.12</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>850</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>990</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>1.07</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>15.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.08</v>
       </c>
-      <c r="N10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>30</v>
       </c>
       <c r="W10" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>1.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.58</v>
+        <v>15.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>1.05</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>5.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>9.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>15.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>1.18</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>1.26</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="S12" t="n">
-        <v>4.9</v>
+        <v>50</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="X12" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>1.35</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="G13" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>36</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>2.06</v>
+        <v>50</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>1.32</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.43</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>970</v>
       </c>
       <c r="H15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>8</v>
       </c>
-      <c r="I15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.28</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>6.2</v>
       </c>
       <c r="W15" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>1.32</v>
       </c>
       <c r="AE15" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I16" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>42</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>60</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.04</v>
       </c>
-      <c r="N16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="S16" t="n">
+        <v>24</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.19</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>3.25</v>
+        <v>38</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.800000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.5</v>
+        <v>440</v>
       </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.82</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>2.62</v>
+        <v>8.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.61</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="AL17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN17" t="n">
         <v>55</v>
       </c>
-      <c r="AM17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>25</v>
-      </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,123 +2813,123 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="H18" t="n">
-        <v>6.8</v>
+        <v>140</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>48</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.34</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>2.92</v>
+        <v>26</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>2.62</v>
       </c>
       <c r="AG18" t="n">
         <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>3.8</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.8</v>
+        <v>13.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>15.5</v>
       </c>
       <c r="H19" t="n">
         <v>1.51</v>
       </c>
       <c r="I19" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J19" t="n">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>2.34</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.72</v>
       </c>
       <c r="P19" t="n">
-        <v>3.15</v>
+        <v>1.27</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>4.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.05</v>
       </c>
       <c r="S19" t="n">
-        <v>2.06</v>
+        <v>19.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="U19" t="n">
-        <v>2.48</v>
+        <v>1.68</v>
       </c>
       <c r="V19" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="W19" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>2.52</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA19" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD19" t="n">
         <v>14</v>
       </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
       <c r="AE19" t="n">
-        <v>13.5</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>520</v>
       </c>
       <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
         <v>170</v>
       </c>
-      <c r="AK19" t="n">
-        <v>60</v>
-      </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>510</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>SC Penedense</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Itabaiana</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.27</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>2.56</v>
       </c>
       <c r="I20" t="n">
-        <v>17</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="K20" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>6.4</v>
+        <v>2.72</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.46</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>4.6</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>60</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AE20" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,1475 +3218,125 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>ABC RN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Campinense</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="O21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.29</v>
       </c>
-      <c r="S21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
         <v>40</v>
       </c>
-      <c r="AF21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Boreham Wood</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Solihull Moors</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X22" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Aldershot</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Wealdstone</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X23" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Woking</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Braintree</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X24" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Boston Utd</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Brackley Town</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Motherwell</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X26" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Man Utd</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X27" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Aston Villa</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X28" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SC Penedense</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Itabaiana</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ABC RN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Campinense</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X31" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO31" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,276 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SC Penedense</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Itabaiana</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="H2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>36</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>34</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>960</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>440</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>800</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ABC RN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Campinense</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>790</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
